--- a/raw_data/20200818_saline/20200818_Sensor1_Test_48.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_48.xlsx
@@ -1,523 +1,939 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D702D757-8DA3-4324-A8AA-1CCD82FF9FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>42488.516506</v>
       </c>
       <c r="B2" s="1">
-        <v>11.802366</v>
+        <v>11.802365999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>907.545000</v>
+        <v>907.54499999999996</v>
       </c>
       <c r="D2" s="1">
-        <v>-187.746000</v>
+        <v>-187.74600000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>42498.915596</v>
+        <v>42498.915595999999</v>
       </c>
       <c r="G2" s="1">
         <v>11.805254</v>
       </c>
       <c r="H2" s="1">
-        <v>923.683000</v>
+        <v>923.68299999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-159.309000</v>
+        <v>-159.309</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>42509.390111</v>
+        <v>42509.390111000001</v>
       </c>
       <c r="L2" s="1">
         <v>11.808164</v>
       </c>
       <c r="M2" s="1">
-        <v>945.001000</v>
+        <v>945.00099999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-114.909000</v>
+        <v>-114.90900000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>42519.904832</v>
@@ -526,148 +942,148 @@
         <v>11.811085</v>
       </c>
       <c r="R2" s="1">
-        <v>951.559000</v>
+        <v>951.55899999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-100.341000</v>
+        <v>-100.34099999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>42530.800913</v>
+        <v>42530.800912999999</v>
       </c>
       <c r="V2" s="1">
         <v>11.814111</v>
       </c>
       <c r="W2" s="1">
-        <v>958.442000</v>
+        <v>958.44200000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-86.657500</v>
+        <v>-86.657499999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>42541.191329</v>
+        <v>42541.191329000001</v>
       </c>
       <c r="AA2" s="1">
         <v>11.816998</v>
       </c>
       <c r="AB2" s="1">
-        <v>966.195000</v>
+        <v>966.19500000000005</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.407900</v>
+        <v>-76.407899999999998</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>42551.732085</v>
+        <v>42551.732085000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>11.819926</v>
+        <v>11.819926000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>971.335000</v>
+        <v>971.33500000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.679500</v>
+        <v>-74.679500000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>42562.489628</v>
+        <v>42562.489628000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>11.822914</v>
+        <v>11.822914000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>978.905000</v>
+        <v>978.90499999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.725500</v>
+        <v>-79.725499999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>42573.066042</v>
+        <v>42573.066041999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>11.825852</v>
+        <v>11.825851999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>987.193000</v>
+        <v>987.19299999999998</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.502900</v>
+        <v>-91.502899999999997</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>42584.357437</v>
+        <v>42584.357436999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>11.828988</v>
+        <v>11.828988000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>997.153000</v>
+        <v>997.15300000000002</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.276000</v>
+        <v>-109.276</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>42595.627036</v>
+        <v>42595.627035999998</v>
       </c>
       <c r="AZ2" s="1">
         <v>11.832119</v>
       </c>
       <c r="BA2" s="1">
-        <v>1005.470000</v>
+        <v>1005.47</v>
       </c>
       <c r="BB2" s="1">
-        <v>-125.033000</v>
+        <v>-125.033</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>42606.325743</v>
+        <v>42606.325743000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>11.835090</v>
+        <v>11.835089999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1044.180000</v>
+        <v>1044.18</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.426000</v>
+        <v>-197.42599999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>42616.954015</v>
+        <v>42616.954015000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>11.838043</v>
+        <v>11.838043000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1110.830000</v>
+        <v>1110.83</v>
       </c>
       <c r="BL2" s="1">
-        <v>-315.101000</v>
+        <v>-315.101</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>42628.124913</v>
@@ -676,120 +1092,120 @@
         <v>11.841146</v>
       </c>
       <c r="BP2" s="1">
-        <v>1219.130000</v>
+        <v>1219.1300000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-501.013000</v>
+        <v>-501.01299999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>42639.297307</v>
+        <v>42639.297307000001</v>
       </c>
       <c r="BT2" s="1">
         <v>11.844249</v>
       </c>
       <c r="BU2" s="1">
-        <v>1341.010000</v>
+        <v>1341.01</v>
       </c>
       <c r="BV2" s="1">
-        <v>-705.364000</v>
+        <v>-705.36400000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>42650.327828</v>
+        <v>42650.327828000001</v>
       </c>
       <c r="BY2" s="1">
         <v>11.847313</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1478.260000</v>
+        <v>1478.26</v>
       </c>
       <c r="CA2" s="1">
-        <v>-923.620000</v>
+        <v>-923.62</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>42660.989830</v>
+        <v>42660.989829999999</v>
       </c>
       <c r="CD2" s="1">
         <v>11.850275</v>
       </c>
       <c r="CE2" s="1">
-        <v>1839.720000</v>
+        <v>1839.72</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1442.180000</v>
+        <v>-1442.18</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>42488.906330</v>
+        <v>42488.906329999998</v>
       </c>
       <c r="B3" s="1">
         <v>11.802474</v>
       </c>
       <c r="C3" s="1">
-        <v>907.511000</v>
+        <v>907.51099999999997</v>
       </c>
       <c r="D3" s="1">
-        <v>-187.845000</v>
+        <v>-187.845</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>42499.300987</v>
+        <v>42499.300987000002</v>
       </c>
       <c r="G3" s="1">
         <v>11.805361</v>
       </c>
       <c r="H3" s="1">
-        <v>922.989000</v>
+        <v>922.98900000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-159.808000</v>
+        <v>-159.80799999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>42510.108814</v>
+        <v>42510.108813999999</v>
       </c>
       <c r="L3" s="1">
-        <v>11.808364</v>
+        <v>11.808363999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>944.951000</v>
+        <v>944.95100000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>-115.032000</v>
+        <v>-115.032</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>42520.637422</v>
       </c>
       <c r="Q3" s="1">
-        <v>11.811288</v>
+        <v>11.811287999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>951.594000</v>
+        <v>951.59400000000005</v>
       </c>
       <c r="S3" s="1">
-        <v>-100.358000</v>
+        <v>-100.358</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>42531.133233</v>
@@ -798,255 +1214,255 @@
         <v>11.814204</v>
       </c>
       <c r="W3" s="1">
-        <v>958.452000</v>
+        <v>958.452</v>
       </c>
       <c r="X3" s="1">
-        <v>-86.812600</v>
+        <v>-86.812600000000003</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>42541.544259</v>
+        <v>42541.544259000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>11.817096</v>
+        <v>11.817095999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>966.216000</v>
+        <v>966.21600000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.406200</v>
+        <v>-76.406199999999998</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>42552.094661</v>
+        <v>42552.094661000003</v>
       </c>
       <c r="AF3" s="1">
         <v>11.820026</v>
       </c>
       <c r="AG3" s="1">
-        <v>971.296000</v>
+        <v>971.29600000000005</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.690500</v>
+        <v>-74.6905</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>42563.189401</v>
+        <v>42563.189401000003</v>
       </c>
       <c r="AK3" s="1">
         <v>11.823108</v>
       </c>
       <c r="AL3" s="1">
-        <v>978.893000</v>
+        <v>978.89300000000003</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.739500</v>
+        <v>-79.739500000000007</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>42573.767849</v>
+        <v>42573.767849000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>11.826047</v>
+        <v>11.826047000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>987.158000</v>
+        <v>987.15800000000002</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.493300</v>
+        <v>-91.493300000000005</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>42584.815738</v>
+        <v>42584.815737999998</v>
       </c>
       <c r="AU3" s="1">
         <v>11.829115</v>
       </c>
       <c r="AV3" s="1">
-        <v>997.146000</v>
+        <v>997.14599999999996</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.260000</v>
+        <v>-109.26</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>42595.990108</v>
+        <v>42595.990107999998</v>
       </c>
       <c r="AZ3" s="1">
         <v>11.832219</v>
       </c>
       <c r="BA3" s="1">
-        <v>1005.470000</v>
+        <v>1005.47</v>
       </c>
       <c r="BB3" s="1">
-        <v>-125.043000</v>
+        <v>-125.04300000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>42606.685611</v>
+        <v>42606.685611000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>11.835190</v>
+        <v>11.835190000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1044.170000</v>
+        <v>1044.17</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.434000</v>
+        <v>-197.434</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>42617.348336</v>
+        <v>42617.348336000003</v>
       </c>
       <c r="BJ3" s="1">
-        <v>11.838152</v>
+        <v>11.838151999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1110.800000</v>
+        <v>1110.8</v>
       </c>
       <c r="BL3" s="1">
-        <v>-315.101000</v>
+        <v>-315.101</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>42628.558913</v>
+        <v>42628.558913000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>11.841266</v>
+        <v>11.841265999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1219.130000</v>
+        <v>1219.1300000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-501.041000</v>
+        <v>-501.041</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>42639.751139</v>
       </c>
       <c r="BT3" s="1">
-        <v>11.844375</v>
+        <v>11.844374999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1341.010000</v>
+        <v>1341.01</v>
       </c>
       <c r="BV3" s="1">
-        <v>-705.295000</v>
+        <v>-705.29499999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>42650.502916</v>
+        <v>42650.502915999998</v>
       </c>
       <c r="BY3" s="1">
         <v>11.847362</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1478.190000</v>
+        <v>1478.19</v>
       </c>
       <c r="CA3" s="1">
-        <v>-923.611000</v>
+        <v>-923.61099999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>42661.549348</v>
       </c>
       <c r="CD3" s="1">
-        <v>11.850430</v>
+        <v>11.850429999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1839.450000</v>
+        <v>1839.45</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1441.240000</v>
+        <v>-1441.24</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>42489.249598</v>
+        <v>42489.249598000002</v>
       </c>
       <c r="B4" s="1">
         <v>11.802569</v>
       </c>
       <c r="C4" s="1">
-        <v>907.641000</v>
+        <v>907.64099999999996</v>
       </c>
       <c r="D4" s="1">
-        <v>-187.653000</v>
+        <v>-187.65299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>42499.988938</v>
+        <v>42499.988938000002</v>
       </c>
       <c r="G4" s="1">
         <v>11.805552</v>
       </c>
       <c r="H4" s="1">
-        <v>923.288000</v>
+        <v>923.28800000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-159.369000</v>
+        <v>-159.369</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>42510.456012</v>
+        <v>42510.456012000002</v>
       </c>
       <c r="L4" s="1">
-        <v>11.808460</v>
+        <v>11.80846</v>
       </c>
       <c r="M4" s="1">
-        <v>944.736000</v>
+        <v>944.73599999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-115.029000</v>
+        <v>-115.029</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>42520.985087</v>
+        <v>42520.985087000001</v>
       </c>
       <c r="Q4" s="1">
         <v>11.811385</v>
       </c>
       <c r="R4" s="1">
-        <v>951.596000</v>
+        <v>951.596</v>
       </c>
       <c r="S4" s="1">
-        <v>-100.379000</v>
+        <v>-100.379</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>42531.476466</v>
@@ -1055,103 +1471,103 @@
         <v>11.814299</v>
       </c>
       <c r="W4" s="1">
-        <v>958.498000</v>
+        <v>958.49800000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-86.868500</v>
+        <v>-86.868499999999997</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>42542.208899</v>
+        <v>42542.208898999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>11.817280</v>
+        <v>11.81728</v>
       </c>
       <c r="AB4" s="1">
-        <v>966.238000</v>
+        <v>966.23800000000006</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.509100</v>
+        <v>-76.509100000000004</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>42552.757103</v>
+        <v>42552.757103000004</v>
       </c>
       <c r="AF4" s="1">
-        <v>11.820210</v>
+        <v>11.820209999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>971.312000</v>
+        <v>971.31200000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.685100</v>
+        <v>-74.685100000000006</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>42563.570102</v>
+        <v>42563.570101999998</v>
       </c>
       <c r="AK4" s="1">
         <v>11.823214</v>
       </c>
       <c r="AL4" s="1">
-        <v>978.894000</v>
+        <v>978.89400000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.728000</v>
+        <v>-79.727999999999994</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>42574.178536</v>
+        <v>42574.178535999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>11.826161</v>
+        <v>11.826161000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>987.179000</v>
+        <v>987.17899999999997</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.510600</v>
+        <v>-91.510599999999997</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>42585.195705</v>
+        <v>42585.195704999998</v>
       </c>
       <c r="AU4" s="1">
         <v>11.829221</v>
       </c>
       <c r="AV4" s="1">
-        <v>997.139000</v>
+        <v>997.13900000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.273000</v>
+        <v>-109.273</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>42596.344781</v>
       </c>
       <c r="AZ4" s="1">
-        <v>11.832318</v>
+        <v>11.832318000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1005.470000</v>
+        <v>1005.47</v>
       </c>
       <c r="BB4" s="1">
-        <v>-125.025000</v>
+        <v>-125.02500000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>42607.243381</v>
@@ -1160,300 +1576,300 @@
         <v>11.835345</v>
       </c>
       <c r="BF4" s="1">
-        <v>1044.170000</v>
+        <v>1044.17</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.439000</v>
+        <v>-197.43899999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>42617.772912</v>
       </c>
       <c r="BJ4" s="1">
-        <v>11.838270</v>
+        <v>11.83827</v>
       </c>
       <c r="BK4" s="1">
-        <v>1110.820000</v>
+        <v>1110.82</v>
       </c>
       <c r="BL4" s="1">
-        <v>-315.099000</v>
+        <v>-315.09899999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>42628.967120</v>
+        <v>42628.967120000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>11.841380</v>
+        <v>11.841379999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1219.110000</v>
+        <v>1219.1099999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-501.049000</v>
+        <v>-501.04899999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>42640.175713</v>
+        <v>42640.175712999997</v>
       </c>
       <c r="BT4" s="1">
         <v>11.844493</v>
       </c>
       <c r="BU4" s="1">
-        <v>1341.030000</v>
+        <v>1341.03</v>
       </c>
       <c r="BV4" s="1">
-        <v>-705.225000</v>
+        <v>-705.22500000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>42650.927525</v>
+        <v>42650.927524999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>11.847480</v>
+        <v>11.847479999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1478.220000</v>
+        <v>1478.22</v>
       </c>
       <c r="CA4" s="1">
-        <v>-923.523000</v>
+        <v>-923.52300000000002</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>42662.068628</v>
+        <v>42662.068628000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>11.850575</v>
+        <v>11.850574999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1837.960000</v>
+        <v>1837.96</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1442.290000</v>
+        <v>-1442.29</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>42489.929347</v>
+        <v>42489.929346999998</v>
       </c>
       <c r="B5" s="1">
-        <v>11.802758</v>
+        <v>11.802758000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>907.660000</v>
+        <v>907.66</v>
       </c>
       <c r="D5" s="1">
-        <v>-187.726000</v>
+        <v>-187.726</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>42500.334153</v>
+        <v>42500.334153000003</v>
       </c>
       <c r="G5" s="1">
         <v>11.805648</v>
       </c>
       <c r="H5" s="1">
-        <v>923.185000</v>
+        <v>923.18499999999995</v>
       </c>
       <c r="I5" s="1">
-        <v>-159.476000</v>
+        <v>-159.476</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>42510.801725</v>
+        <v>42510.801724999998</v>
       </c>
       <c r="L5" s="1">
-        <v>11.808556</v>
+        <v>11.808555999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>945.004000</v>
+        <v>945.00400000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-114.912000</v>
+        <v>-114.91200000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>42521.335759</v>
+        <v>42521.335759000001</v>
       </c>
       <c r="Q5" s="1">
         <v>11.811482</v>
       </c>
       <c r="R5" s="1">
-        <v>951.611000</v>
+        <v>951.61099999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-100.381000</v>
+        <v>-100.381</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>42532.134682</v>
+        <v>42532.134682000004</v>
       </c>
       <c r="V5" s="1">
         <v>11.814482</v>
       </c>
       <c r="W5" s="1">
-        <v>958.506000</v>
+        <v>958.50599999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>-86.846500</v>
+        <v>-86.846500000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>42542.586355</v>
+        <v>42542.586354999999</v>
       </c>
       <c r="AA5" s="1">
         <v>11.817385</v>
       </c>
       <c r="AB5" s="1">
-        <v>966.269000</v>
+        <v>966.26900000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.417400</v>
+        <v>-76.417400000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>42553.121420</v>
+        <v>42553.121420000003</v>
       </c>
       <c r="AF5" s="1">
-        <v>11.820312</v>
+        <v>11.820311999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>971.306000</v>
+        <v>971.30600000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.640000</v>
+        <v>-74.64</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>42563.919816</v>
+        <v>42563.919816000001</v>
       </c>
       <c r="AK5" s="1">
         <v>11.823311</v>
       </c>
       <c r="AL5" s="1">
-        <v>978.907000</v>
+        <v>978.90700000000004</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.744600</v>
+        <v>-79.744600000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>42574.555498</v>
+        <v>42574.555498000002</v>
       </c>
       <c r="AP5" s="1">
-        <v>11.826265</v>
+        <v>11.826264999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>987.183000</v>
+        <v>987.18299999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.484300</v>
+        <v>-91.484300000000005</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>42585.563241</v>
+        <v>42585.563241000003</v>
       </c>
       <c r="AU5" s="1">
         <v>11.829323</v>
       </c>
       <c r="AV5" s="1">
-        <v>997.149000</v>
+        <v>997.149</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.253000</v>
+        <v>-109.253</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>42596.769818</v>
+        <v>42596.769818000001</v>
       </c>
       <c r="AZ5" s="1">
         <v>11.832436</v>
       </c>
       <c r="BA5" s="1">
-        <v>1005.450000</v>
+        <v>1005.45</v>
       </c>
       <c r="BB5" s="1">
-        <v>-125.041000</v>
+        <v>-125.041</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>42607.408540</v>
+        <v>42607.408539999997</v>
       </c>
       <c r="BE5" s="1">
         <v>11.835391</v>
       </c>
       <c r="BF5" s="1">
-        <v>1044.190000</v>
+        <v>1044.19</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.435000</v>
+        <v>-197.435</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>42618.094814</v>
+        <v>42618.094813999996</v>
       </c>
       <c r="BJ5" s="1">
-        <v>11.838360</v>
+        <v>11.83836</v>
       </c>
       <c r="BK5" s="1">
-        <v>1110.800000</v>
+        <v>1110.8</v>
       </c>
       <c r="BL5" s="1">
-        <v>-315.090000</v>
+        <v>-315.08999999999997</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>42629.364447</v>
       </c>
       <c r="BO5" s="1">
-        <v>11.841490</v>
+        <v>11.84149</v>
       </c>
       <c r="BP5" s="1">
-        <v>1219.100000</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-501.083000</v>
+        <v>-501.08300000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>42640.585904</v>
@@ -1462,60 +1878,60 @@
         <v>11.844607</v>
       </c>
       <c r="BU5" s="1">
-        <v>1341.090000</v>
+        <v>1341.09</v>
       </c>
       <c r="BV5" s="1">
-        <v>-705.295000</v>
+        <v>-705.29499999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>42651.350083</v>
+        <v>42651.350082999998</v>
       </c>
       <c r="BY5" s="1">
         <v>11.847597</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1478.160000</v>
+        <v>1478.16</v>
       </c>
       <c r="CA5" s="1">
-        <v>-923.564000</v>
+        <v>-923.56399999999996</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>42662.610259</v>
+        <v>42662.610259000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>11.850725</v>
+        <v>11.850725000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1839.400000</v>
+        <v>1839.4</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1442.520000</v>
+        <v>-1442.52</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>42490.272312</v>
+        <v>42490.272312000001</v>
       </c>
       <c r="B6" s="1">
-        <v>11.802853</v>
+        <v>11.802853000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>907.626000</v>
+        <v>907.62599999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-187.777000</v>
+        <v>-187.77699999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>42500.680858</v>
@@ -1524,13 +1940,13 @@
         <v>11.805745</v>
       </c>
       <c r="H6" s="1">
-        <v>923.244000</v>
+        <v>923.24400000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>-159.593000</v>
+        <v>-159.59299999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>42511.473307</v>
@@ -1539,28 +1955,28 @@
         <v>11.808743</v>
       </c>
       <c r="M6" s="1">
-        <v>944.848000</v>
+        <v>944.84799999999996</v>
       </c>
       <c r="N6" s="1">
-        <v>-115.005000</v>
+        <v>-115.005</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>42522.000893</v>
+        <v>42522.000892999997</v>
       </c>
       <c r="Q6" s="1">
         <v>11.811667</v>
       </c>
       <c r="R6" s="1">
-        <v>951.575000</v>
+        <v>951.57500000000005</v>
       </c>
       <c r="S6" s="1">
-        <v>-100.345000</v>
+        <v>-100.345</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>42532.508145</v>
@@ -1569,118 +1985,118 @@
         <v>11.814586</v>
       </c>
       <c r="W6" s="1">
-        <v>958.454000</v>
+        <v>958.45399999999995</v>
       </c>
       <c r="X6" s="1">
-        <v>-86.811400</v>
+        <v>-86.811400000000006</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>42542.936562</v>
+        <v>42542.936562000003</v>
       </c>
       <c r="AA6" s="1">
         <v>11.817482</v>
       </c>
       <c r="AB6" s="1">
-        <v>966.200000</v>
+        <v>966.2</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.395400</v>
+        <v>-76.395399999999995</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>42553.471556</v>
+        <v>42553.471555999997</v>
       </c>
       <c r="AF6" s="1">
         <v>11.820409</v>
       </c>
       <c r="AG6" s="1">
-        <v>971.299000</v>
+        <v>971.29899999999998</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.681600</v>
+        <v>-74.681600000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>42564.271447</v>
+        <v>42564.271446999999</v>
       </c>
       <c r="AK6" s="1">
         <v>11.823409</v>
       </c>
       <c r="AL6" s="1">
-        <v>978.876000</v>
+        <v>978.87599999999998</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.745000</v>
+        <v>-79.745000000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>42574.981063</v>
+        <v>42574.981062999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>11.826384</v>
+        <v>11.826383999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>987.174000</v>
+        <v>987.17399999999998</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.484600</v>
+        <v>-91.4846</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>42585.986825</v>
       </c>
       <c r="AU6" s="1">
-        <v>11.829441</v>
+        <v>11.829440999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>997.139000</v>
+        <v>997.13900000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.261000</v>
+        <v>-109.261</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>42597.063947</v>
+        <v>42597.063947000002</v>
       </c>
       <c r="AZ6" s="1">
         <v>11.832518</v>
       </c>
       <c r="BA6" s="1">
-        <v>1005.440000</v>
+        <v>1005.44</v>
       </c>
       <c r="BB6" s="1">
-        <v>-125.014000</v>
+        <v>-125.014</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>42607.769597</v>
+        <v>42607.769596999999</v>
       </c>
       <c r="BE6" s="1">
         <v>11.835492</v>
       </c>
       <c r="BF6" s="1">
-        <v>1044.170000</v>
+        <v>1044.17</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.446000</v>
+        <v>-197.446</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>42618.470814</v>
@@ -1689,105 +2105,105 @@
         <v>11.838464</v>
       </c>
       <c r="BK6" s="1">
-        <v>1110.820000</v>
+        <v>1110.82</v>
       </c>
       <c r="BL6" s="1">
-        <v>-315.109000</v>
+        <v>-315.10899999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>42629.789486</v>
+        <v>42629.789486000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>11.841608</v>
+        <v>11.841608000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1219.150000</v>
+        <v>1219.1500000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-501.061000</v>
+        <v>-501.06099999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>42641.022385</v>
+        <v>42641.022384999997</v>
       </c>
       <c r="BT6" s="1">
         <v>11.844728</v>
       </c>
       <c r="BU6" s="1">
-        <v>1341.090000</v>
+        <v>1341.09</v>
       </c>
       <c r="BV6" s="1">
-        <v>-705.252000</v>
+        <v>-705.25199999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>42651.796977</v>
+        <v>42651.796976999998</v>
       </c>
       <c r="BY6" s="1">
         <v>11.847721</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1478.310000</v>
+        <v>1478.31</v>
       </c>
       <c r="CA6" s="1">
-        <v>-923.715000</v>
+        <v>-923.71500000000003</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>42663.147923</v>
+        <v>42663.147922999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>11.850874</v>
+        <v>11.850873999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1838.370000</v>
+        <v>1838.37</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1441.550000</v>
+        <v>-1441.55</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>42490.616549</v>
+        <v>42490.616548999998</v>
       </c>
       <c r="B7" s="1">
         <v>11.802949</v>
       </c>
       <c r="C7" s="1">
-        <v>907.647000</v>
+        <v>907.64700000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-187.620000</v>
+        <v>-187.62</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>42501.345001</v>
+        <v>42501.345001000002</v>
       </c>
       <c r="G7" s="1">
-        <v>11.805929</v>
+        <v>11.805929000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>923.053000</v>
+        <v>923.053</v>
       </c>
       <c r="I7" s="1">
-        <v>-159.232000</v>
+        <v>-159.232</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>42511.836379</v>
@@ -1796,28 +2212,28 @@
         <v>11.808843</v>
       </c>
       <c r="M7" s="1">
-        <v>944.813000</v>
+        <v>944.81299999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-115.061000</v>
+        <v>-115.06100000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>42522.381857</v>
       </c>
       <c r="Q7" s="1">
-        <v>11.811773</v>
+        <v>11.811773000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>951.556000</v>
+        <v>951.55600000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-100.354000</v>
+        <v>-100.354</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>42532.852367</v>
@@ -1826,13 +2242,13 @@
         <v>11.814681</v>
       </c>
       <c r="W7" s="1">
-        <v>958.578000</v>
+        <v>958.57799999999997</v>
       </c>
       <c r="X7" s="1">
-        <v>-86.837700</v>
+        <v>-86.837699999999998</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>42543.284754</v>
@@ -1841,13 +2257,13 @@
         <v>11.817579</v>
       </c>
       <c r="AB7" s="1">
-        <v>966.217000</v>
+        <v>966.21699999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.458000</v>
+        <v>-76.457999999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>42553.812307</v>
@@ -1856,43 +2272,43 @@
         <v>11.820503</v>
       </c>
       <c r="AG7" s="1">
-        <v>971.326000</v>
+        <v>971.32600000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.670600</v>
+        <v>-74.670599999999993</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>42564.694533</v>
+        <v>42564.694533000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>11.823526</v>
+        <v>11.823525999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>978.928000</v>
+        <v>978.928</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.739500</v>
+        <v>-79.739500000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>42575.281640</v>
+        <v>42575.281640000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>11.826467</v>
+        <v>11.826466999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>987.163000</v>
+        <v>987.16300000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.483900</v>
+        <v>-91.483900000000006</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>42586.292857</v>
@@ -1901,165 +2317,165 @@
         <v>11.829526</v>
       </c>
       <c r="AV7" s="1">
-        <v>997.150000</v>
+        <v>997.15</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.274000</v>
+        <v>-109.274</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>42597.423545</v>
+        <v>42597.423544999998</v>
       </c>
       <c r="AZ7" s="1">
         <v>11.832618</v>
       </c>
       <c r="BA7" s="1">
-        <v>1005.470000</v>
+        <v>1005.47</v>
       </c>
       <c r="BB7" s="1">
-        <v>-125.039000</v>
+        <v>-125.039</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>42608.131675</v>
+        <v>42608.131674999997</v>
       </c>
       <c r="BE7" s="1">
         <v>11.835592</v>
       </c>
       <c r="BF7" s="1">
-        <v>1044.190000</v>
+        <v>1044.19</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.422000</v>
+        <v>-197.422</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>42618.872542</v>
+        <v>42618.872541999997</v>
       </c>
       <c r="BJ7" s="1">
         <v>11.838576</v>
       </c>
       <c r="BK7" s="1">
-        <v>1110.790000</v>
+        <v>1110.79</v>
       </c>
       <c r="BL7" s="1">
-        <v>-315.115000</v>
+        <v>-315.11500000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>42630.601933</v>
+        <v>42630.601932999998</v>
       </c>
       <c r="BO7" s="1">
         <v>11.841834</v>
       </c>
       <c r="BP7" s="1">
-        <v>1219.120000</v>
+        <v>1219.1199999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-501.106000</v>
+        <v>-501.10599999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>42641.440049</v>
+        <v>42641.440048999997</v>
       </c>
       <c r="BT7" s="1">
         <v>11.844844</v>
       </c>
       <c r="BU7" s="1">
-        <v>1341.160000</v>
+        <v>1341.16</v>
       </c>
       <c r="BV7" s="1">
-        <v>-705.288000</v>
+        <v>-705.28800000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>42652.231576</v>
+        <v>42652.231575999998</v>
       </c>
       <c r="BY7" s="1">
         <v>11.847842</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1478.280000</v>
+        <v>1478.28</v>
       </c>
       <c r="CA7" s="1">
-        <v>-923.636000</v>
+        <v>-923.63599999999997</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>42663.690546</v>
+        <v>42663.690545999998</v>
       </c>
       <c r="CD7" s="1">
         <v>11.851025</v>
       </c>
       <c r="CE7" s="1">
-        <v>1838.680000</v>
+        <v>1838.68</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1442.830000</v>
+        <v>-1442.83</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>42491.271254</v>
+        <v>42491.271253999999</v>
       </c>
       <c r="B8" s="1">
         <v>11.803131</v>
       </c>
       <c r="C8" s="1">
-        <v>907.650000</v>
+        <v>907.65</v>
       </c>
       <c r="D8" s="1">
-        <v>-187.684000</v>
+        <v>-187.684</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>42501.715543</v>
+        <v>42501.715542999998</v>
       </c>
       <c r="G8" s="1">
         <v>11.806032</v>
       </c>
       <c r="H8" s="1">
-        <v>923.370000</v>
+        <v>923.37</v>
       </c>
       <c r="I8" s="1">
-        <v>-159.875000</v>
+        <v>-159.875</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>42512.185066</v>
+        <v>42512.185065999998</v>
       </c>
       <c r="L8" s="1">
-        <v>11.808940</v>
+        <v>11.80894</v>
       </c>
       <c r="M8" s="1">
-        <v>944.785000</v>
+        <v>944.78499999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-114.945000</v>
+        <v>-114.94499999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>42522.726573</v>
@@ -2068,300 +2484,300 @@
         <v>11.811868</v>
       </c>
       <c r="R8" s="1">
-        <v>951.602000</v>
+        <v>951.60199999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-100.355000</v>
+        <v>-100.355</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>42533.194112</v>
+        <v>42533.194111999997</v>
       </c>
       <c r="V8" s="1">
         <v>11.814776</v>
       </c>
       <c r="W8" s="1">
-        <v>958.450000</v>
+        <v>958.45</v>
       </c>
       <c r="X8" s="1">
-        <v>-86.867800</v>
+        <v>-86.867800000000003</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>42543.722192</v>
+        <v>42543.722192000001</v>
       </c>
       <c r="AA8" s="1">
         <v>11.817701</v>
       </c>
       <c r="AB8" s="1">
-        <v>966.266000</v>
+        <v>966.26599999999996</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.472600</v>
+        <v>-76.4726</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>42554.240891</v>
+        <v>42554.240891000001</v>
       </c>
       <c r="AF8" s="1">
         <v>11.820622</v>
       </c>
       <c r="AG8" s="1">
-        <v>971.315000</v>
+        <v>971.31500000000005</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.661800</v>
+        <v>-74.661799999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>42564.962868</v>
+        <v>42564.962868000002</v>
       </c>
       <c r="AK8" s="1">
         <v>11.823601</v>
       </c>
       <c r="AL8" s="1">
-        <v>978.915000</v>
+        <v>978.91499999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.739200</v>
+        <v>-79.739199999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>42575.645206</v>
+        <v>42575.645206000001</v>
       </c>
       <c r="AP8" s="1">
         <v>11.826568</v>
       </c>
       <c r="AQ8" s="1">
-        <v>987.169000</v>
+        <v>987.16899999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.483200</v>
+        <v>-91.483199999999997</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>42586.657879</v>
+        <v>42586.657878999999</v>
       </c>
       <c r="AU8" s="1">
         <v>11.829627</v>
       </c>
       <c r="AV8" s="1">
-        <v>997.133000</v>
+        <v>997.13300000000004</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.273000</v>
+        <v>-109.273</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>42597.782187</v>
+        <v>42597.782186999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>11.832717</v>
+        <v>11.832717000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1005.470000</v>
+        <v>1005.47</v>
       </c>
       <c r="BB8" s="1">
-        <v>-125.058000</v>
+        <v>-125.05800000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>42608.852076</v>
+        <v>42608.852076000003</v>
       </c>
       <c r="BE8" s="1">
         <v>11.835792</v>
       </c>
       <c r="BF8" s="1">
-        <v>1044.180000</v>
+        <v>1044.18</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.435000</v>
+        <v>-197.435</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>42619.617776</v>
+        <v>42619.617775999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>11.838783</v>
+        <v>11.838782999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1110.790000</v>
+        <v>1110.79</v>
       </c>
       <c r="BL8" s="1">
-        <v>-315.103000</v>
+        <v>-315.10300000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>42631.019607</v>
+        <v>42631.019607000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>11.841950</v>
+        <v>11.841950000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1219.110000</v>
+        <v>1219.1099999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-501.068000</v>
+        <v>-501.06799999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>42641.869086</v>
+        <v>42641.869085999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>11.844964</v>
+        <v>11.844963999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1341.200000</v>
+        <v>1341.2</v>
       </c>
       <c r="BV8" s="1">
-        <v>-705.250000</v>
+        <v>-705.25</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>42652.688288</v>
+        <v>42652.688287999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>11.847969</v>
+        <v>11.847969000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1478.220000</v>
+        <v>1478.22</v>
       </c>
       <c r="CA8" s="1">
-        <v>-923.591000</v>
+        <v>-923.59100000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>42664.546641</v>
+        <v>42664.546641000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>11.851263</v>
+        <v>11.851262999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1837.680000</v>
+        <v>1837.68</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1441.550000</v>
+        <v>-1441.55</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>42491.646726</v>
+        <v>42491.646725999999</v>
       </c>
       <c r="B9" s="1">
-        <v>11.803235</v>
+        <v>11.803235000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>907.520000</v>
+        <v>907.52</v>
       </c>
       <c r="D9" s="1">
-        <v>-187.914000</v>
+        <v>-187.91399999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>42502.062713</v>
+        <v>42502.062712999999</v>
       </c>
       <c r="G9" s="1">
         <v>11.806129</v>
       </c>
       <c r="H9" s="1">
-        <v>923.610000</v>
+        <v>923.61</v>
       </c>
       <c r="I9" s="1">
-        <v>-159.416000</v>
+        <v>-159.416</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>42512.530282</v>
       </c>
       <c r="L9" s="1">
-        <v>11.809036</v>
+        <v>11.809036000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>944.996000</v>
+        <v>944.99599999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-114.980000</v>
+        <v>-114.98</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>42523.077246</v>
+        <v>42523.077246000001</v>
       </c>
       <c r="Q9" s="1">
         <v>11.811966</v>
       </c>
       <c r="R9" s="1">
-        <v>951.598000</v>
+        <v>951.59799999999996</v>
       </c>
       <c r="S9" s="1">
-        <v>-100.394000</v>
+        <v>-100.39400000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>42533.627118</v>
+        <v>42533.627117999997</v>
       </c>
       <c r="V9" s="1">
-        <v>11.814896</v>
+        <v>11.814895999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>958.507000</v>
+        <v>958.50699999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-86.772000</v>
+        <v>-86.772000000000006</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>42543.981601</v>
       </c>
       <c r="AA9" s="1">
-        <v>11.817773</v>
+        <v>11.817773000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>966.166000</v>
+        <v>966.16600000000005</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.475400</v>
+        <v>-76.475399999999993</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>42554.513649</v>
@@ -2370,28 +2786,28 @@
         <v>11.820698</v>
       </c>
       <c r="AG9" s="1">
-        <v>971.292000</v>
+        <v>971.29200000000003</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.652700</v>
+        <v>-74.652699999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>42565.315028</v>
+        <v>42565.315027999997</v>
       </c>
       <c r="AK9" s="1">
         <v>11.823699</v>
       </c>
       <c r="AL9" s="1">
-        <v>978.904000</v>
+        <v>978.904</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.749000</v>
+        <v>-79.748999999999995</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>42576.003846</v>
@@ -2400,88 +2816,88 @@
         <v>11.826668</v>
       </c>
       <c r="AQ9" s="1">
-        <v>987.171000</v>
+        <v>987.17100000000005</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.500100</v>
+        <v>-91.500100000000003</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>42587.022472</v>
+        <v>42587.022471999997</v>
       </c>
       <c r="AU9" s="1">
-        <v>11.829728</v>
+        <v>11.829727999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>997.133000</v>
+        <v>997.13300000000004</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.262000</v>
+        <v>-109.262</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>42598.497912</v>
+        <v>42598.497911999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>11.832916</v>
+        <v>11.832916000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1005.450000</v>
+        <v>1005.45</v>
       </c>
       <c r="BB9" s="1">
-        <v>-125.030000</v>
+        <v>-125.03</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>42609.239242</v>
+        <v>42609.239242000003</v>
       </c>
       <c r="BE9" s="1">
-        <v>11.835900</v>
+        <v>11.835900000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1044.190000</v>
+        <v>1044.19</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.432000</v>
+        <v>-197.43199999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>42620.022765</v>
+        <v>42620.022765000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>11.838895</v>
+        <v>11.838895000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1110.820000</v>
+        <v>1110.82</v>
       </c>
       <c r="BL9" s="1">
-        <v>-315.118000</v>
+        <v>-315.11799999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>42631.414381</v>
+        <v>42631.414381000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>11.842060</v>
+        <v>11.84206</v>
       </c>
       <c r="BP9" s="1">
-        <v>1219.140000</v>
+        <v>1219.1400000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-501.085000</v>
+        <v>-501.08499999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>42642.599661</v>
@@ -2490,574 +2906,574 @@
         <v>11.845167</v>
       </c>
       <c r="BU9" s="1">
-        <v>1341.240000</v>
+        <v>1341.24</v>
       </c>
       <c r="BV9" s="1">
-        <v>-705.270000</v>
+        <v>-705.27</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>42653.449647</v>
+        <v>42653.449647000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>11.848180</v>
+        <v>11.848179999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1478.200000</v>
+        <v>1478.2</v>
       </c>
       <c r="CA9" s="1">
-        <v>-923.642000</v>
+        <v>-923.64200000000005</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>42664.767361</v>
+        <v>42664.767360999998</v>
       </c>
       <c r="CD9" s="1">
         <v>11.851324</v>
       </c>
       <c r="CE9" s="1">
-        <v>1837.950000</v>
+        <v>1837.95</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1441.430000</v>
+        <v>-1441.43</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>42492.002357</v>
+        <v>42492.002356999998</v>
       </c>
       <c r="B10" s="1">
         <v>11.803334</v>
       </c>
       <c r="C10" s="1">
-        <v>907.646000</v>
+        <v>907.64599999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-187.710000</v>
+        <v>-187.71</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>42502.404951</v>
+        <v>42502.404950999997</v>
       </c>
       <c r="G10" s="1">
         <v>11.806224</v>
       </c>
       <c r="H10" s="1">
-        <v>923.236000</v>
+        <v>923.23599999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-159.579000</v>
+        <v>-159.57900000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>42512.952409</v>
+        <v>42512.952408999998</v>
       </c>
       <c r="L10" s="1">
         <v>11.809153</v>
       </c>
       <c r="M10" s="1">
-        <v>944.781000</v>
+        <v>944.78099999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-115.213000</v>
+        <v>-115.21299999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>42523.504267</v>
+        <v>42523.504266999997</v>
       </c>
       <c r="Q10" s="1">
         <v>11.812085</v>
       </c>
       <c r="R10" s="1">
-        <v>951.604000</v>
+        <v>951.60400000000004</v>
       </c>
       <c r="S10" s="1">
-        <v>-100.404000</v>
+        <v>-100.404</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>42533.908853</v>
+        <v>42533.908853000001</v>
       </c>
       <c r="V10" s="1">
         <v>11.814975</v>
       </c>
       <c r="W10" s="1">
-        <v>958.401000</v>
+        <v>958.40099999999995</v>
       </c>
       <c r="X10" s="1">
-        <v>-86.860400</v>
+        <v>-86.860399999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>42544.332271</v>
+        <v>42544.332270999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>11.817870</v>
+        <v>11.817869999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>966.145000</v>
+        <v>966.14499999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.394100</v>
+        <v>-76.394099999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>42554.856881</v>
       </c>
       <c r="AF10" s="1">
-        <v>11.820794</v>
+        <v>11.820793999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>971.299000</v>
+        <v>971.29899999999998</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.713900</v>
+        <v>-74.713899999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>42565.664707</v>
+        <v>42565.664707000004</v>
       </c>
       <c r="AK10" s="1">
         <v>11.823796</v>
       </c>
       <c r="AL10" s="1">
-        <v>978.887000</v>
+        <v>978.88699999999994</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.732100</v>
+        <v>-79.732100000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>42576.723542</v>
       </c>
       <c r="AP10" s="1">
-        <v>11.826868</v>
+        <v>11.826867999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>987.177000</v>
+        <v>987.17700000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.474700</v>
+        <v>-91.474699999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>42587.752054</v>
+        <v>42587.752053999997</v>
       </c>
       <c r="AU10" s="1">
         <v>11.829931</v>
       </c>
       <c r="AV10" s="1">
-        <v>997.127000</v>
+        <v>997.12699999999995</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.276000</v>
+        <v>-109.276</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>42598.859002</v>
+        <v>42598.859001999997</v>
       </c>
       <c r="AZ10" s="1">
-        <v>11.833016</v>
+        <v>11.833016000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1005.460000</v>
+        <v>1005.46</v>
       </c>
       <c r="BB10" s="1">
-        <v>-125.019000</v>
+        <v>-125.01900000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>42609.601321</v>
+        <v>42609.601321000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>11.836000</v>
+        <v>11.836</v>
       </c>
       <c r="BF10" s="1">
-        <v>1044.170000</v>
+        <v>1044.17</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.422000</v>
+        <v>-197.422</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>42620.398267</v>
+        <v>42620.398266999997</v>
       </c>
       <c r="BJ10" s="1">
-        <v>11.839000</v>
+        <v>11.839</v>
       </c>
       <c r="BK10" s="1">
-        <v>1110.810000</v>
+        <v>1110.81</v>
       </c>
       <c r="BL10" s="1">
-        <v>-315.098000</v>
+        <v>-315.09800000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>42632.150047</v>
+        <v>42632.150047000003</v>
       </c>
       <c r="BO10" s="1">
         <v>11.842264</v>
       </c>
       <c r="BP10" s="1">
-        <v>1219.110000</v>
+        <v>1219.1099999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-501.067000</v>
+        <v>-501.06700000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>42642.712751</v>
+        <v>42642.712750999999</v>
       </c>
       <c r="BT10" s="1">
         <v>11.845198</v>
       </c>
       <c r="BU10" s="1">
-        <v>1341.280000</v>
+        <v>1341.28</v>
       </c>
       <c r="BV10" s="1">
-        <v>-705.219000</v>
+        <v>-705.21900000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>42653.583072</v>
+        <v>42653.583072000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>11.848218</v>
+        <v>11.848217999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1478.320000</v>
+        <v>1478.32</v>
       </c>
       <c r="CA10" s="1">
-        <v>-923.685000</v>
+        <v>-923.68499999999995</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>42665.285679</v>
+        <v>42665.285679000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>11.851468</v>
+        <v>11.851468000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1838.390000</v>
+        <v>1838.39</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1442.620000</v>
+        <v>-1442.62</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>42492.336698</v>
+        <v>42492.336697999999</v>
       </c>
       <c r="B11" s="1">
-        <v>11.803427</v>
+        <v>11.803426999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>907.718000</v>
+        <v>907.71799999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-187.743000</v>
+        <v>-187.74299999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>42502.834023</v>
+        <v>42502.834023000003</v>
       </c>
       <c r="G11" s="1">
         <v>11.806343</v>
       </c>
       <c r="H11" s="1">
-        <v>923.327000</v>
+        <v>923.327</v>
       </c>
       <c r="I11" s="1">
-        <v>-159.577000</v>
+        <v>-159.577</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>42513.241066</v>
+        <v>42513.241066000002</v>
       </c>
       <c r="L11" s="1">
         <v>11.809234</v>
       </c>
       <c r="M11" s="1">
-        <v>944.882000</v>
+        <v>944.88199999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-114.995000</v>
+        <v>-114.995</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>42523.779581</v>
+        <v>42523.779581000003</v>
       </c>
       <c r="Q11" s="1">
         <v>11.812161</v>
       </c>
       <c r="R11" s="1">
-        <v>951.570000</v>
+        <v>951.57</v>
       </c>
       <c r="S11" s="1">
-        <v>-100.390000</v>
+        <v>-100.39</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>42534.250588</v>
+        <v>42534.250588000003</v>
       </c>
       <c r="V11" s="1">
-        <v>11.815070</v>
+        <v>11.81507</v>
       </c>
       <c r="W11" s="1">
-        <v>958.614000</v>
+        <v>958.61400000000003</v>
       </c>
       <c r="X11" s="1">
-        <v>-86.817100</v>
+        <v>-86.817099999999996</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>42544.680959</v>
+        <v>42544.680958999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>11.817967</v>
+        <v>11.817966999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>966.276000</v>
+        <v>966.27599999999995</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.422200</v>
+        <v>-76.422200000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>42555.200609</v>
       </c>
       <c r="AF11" s="1">
-        <v>11.820889</v>
+        <v>11.820888999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>971.216000</v>
+        <v>971.21600000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.666200</v>
+        <v>-74.666200000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>42566.360596</v>
+        <v>42566.360595999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>11.823989</v>
+        <v>11.823988999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>978.882000</v>
+        <v>978.88199999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.730100</v>
+        <v>-79.730099999999993</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>42577.081621</v>
+        <v>42577.081620999998</v>
       </c>
       <c r="AP11" s="1">
         <v>11.826967</v>
       </c>
       <c r="AQ11" s="1">
-        <v>987.163000</v>
+        <v>987.16300000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.492900</v>
+        <v>-91.492900000000006</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>42588.144886</v>
+        <v>42588.144886000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>11.830040</v>
+        <v>11.83004</v>
       </c>
       <c r="AV11" s="1">
-        <v>997.132000</v>
+        <v>997.13199999999995</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.254000</v>
+        <v>-109.254</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>42599.218598</v>
+        <v>42599.218597999999</v>
       </c>
       <c r="AZ11" s="1">
         <v>11.833116</v>
       </c>
       <c r="BA11" s="1">
-        <v>1005.470000</v>
+        <v>1005.47</v>
       </c>
       <c r="BB11" s="1">
-        <v>-125.042000</v>
+        <v>-125.042</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>42610.273432</v>
+        <v>42610.273432000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>11.836187</v>
+        <v>11.836187000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1044.170000</v>
+        <v>1044.17</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.424000</v>
+        <v>-197.42400000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>42621.092170</v>
+        <v>42621.092170000004</v>
       </c>
       <c r="BJ11" s="1">
-        <v>11.839192</v>
+        <v>11.839192000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1110.810000</v>
+        <v>1110.81</v>
       </c>
       <c r="BL11" s="1">
-        <v>-315.093000</v>
+        <v>-315.09300000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>42632.656858</v>
+        <v>42632.656858000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>11.842405</v>
+        <v>11.842404999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1219.110000</v>
+        <v>1219.1099999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-501.101000</v>
+        <v>-501.101</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>42643.150221</v>
+        <v>42643.150221000004</v>
       </c>
       <c r="BT11" s="1">
-        <v>11.845320</v>
+        <v>11.845319999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1341.280000</v>
+        <v>1341.28</v>
       </c>
       <c r="BV11" s="1">
-        <v>-705.270000</v>
+        <v>-705.27</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>42653.997231</v>
+        <v>42653.997231000001</v>
       </c>
       <c r="BY11" s="1">
         <v>11.848333</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1478.260000</v>
+        <v>1478.26</v>
       </c>
       <c r="CA11" s="1">
-        <v>-923.656000</v>
+        <v>-923.65599999999995</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>42665.809950</v>
+        <v>42665.809950000003</v>
       </c>
       <c r="CD11" s="1">
         <v>11.851614</v>
       </c>
       <c r="CE11" s="1">
-        <v>1838.170000</v>
+        <v>1838.17</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1442.620000</v>
+        <v>-1442.62</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>42492.818773</v>
+        <v>42492.818772999999</v>
       </c>
       <c r="B12" s="1">
         <v>11.803561</v>
       </c>
       <c r="C12" s="1">
-        <v>907.676000</v>
+        <v>907.67600000000004</v>
       </c>
       <c r="D12" s="1">
-        <v>-187.665000</v>
+        <v>-187.66499999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>42503.102326</v>
@@ -3066,241 +3482,241 @@
         <v>11.806417</v>
       </c>
       <c r="H12" s="1">
-        <v>923.702000</v>
+        <v>923.702</v>
       </c>
       <c r="I12" s="1">
-        <v>-159.138000</v>
+        <v>-159.13800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>42513.588248</v>
       </c>
       <c r="L12" s="1">
-        <v>11.809330</v>
+        <v>11.809329999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>945.020000</v>
+        <v>945.02</v>
       </c>
       <c r="N12" s="1">
-        <v>-114.991000</v>
+        <v>-114.991</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>42524.127771</v>
+        <v>42524.127770999999</v>
       </c>
       <c r="Q12" s="1">
         <v>11.812258</v>
       </c>
       <c r="R12" s="1">
-        <v>951.537000</v>
+        <v>951.53700000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-100.380000</v>
+        <v>-100.38</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>42534.596302</v>
+        <v>42534.596301999998</v>
       </c>
       <c r="V12" s="1">
         <v>11.815166</v>
       </c>
       <c r="W12" s="1">
-        <v>958.391000</v>
+        <v>958.39099999999996</v>
       </c>
       <c r="X12" s="1">
-        <v>-86.785500</v>
+        <v>-86.785499999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>42545.380831</v>
+        <v>42545.380831000002</v>
       </c>
       <c r="AA12" s="1">
         <v>11.818161</v>
       </c>
       <c r="AB12" s="1">
-        <v>966.164000</v>
+        <v>966.16399999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.406600</v>
+        <v>-76.406599999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>42555.884097</v>
+        <v>42555.884097000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>11.821079</v>
+        <v>11.821078999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>971.316000</v>
+        <v>971.31600000000003</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.700600</v>
+        <v>-74.700599999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>42566.710306</v>
+        <v>42566.710306000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>11.824086</v>
+        <v>11.824085999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>978.885000</v>
+        <v>978.88499999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.759300</v>
+        <v>-79.759299999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>42577.443235</v>
+        <v>42577.443234999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>11.827068</v>
+        <v>11.827068000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>987.173000</v>
+        <v>987.173</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.504100</v>
+        <v>-91.504099999999994</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>42588.508486</v>
+        <v>42588.508485999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>11.830141</v>
+        <v>11.830140999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>997.146000</v>
+        <v>997.14599999999996</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.268000</v>
+        <v>-109.268</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>42599.899117</v>
+        <v>42599.899117000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>11.833305</v>
+        <v>11.833304999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1005.450000</v>
+        <v>1005.45</v>
       </c>
       <c r="BB12" s="1">
-        <v>-125.034000</v>
+        <v>-125.03400000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>42610.719832</v>
+        <v>42610.719832000002</v>
       </c>
       <c r="BE12" s="1">
         <v>11.836311</v>
       </c>
       <c r="BF12" s="1">
-        <v>1044.180000</v>
+        <v>1044.18</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.456000</v>
+        <v>-197.45599999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>42621.554905</v>
+        <v>42621.554904999997</v>
       </c>
       <c r="BJ12" s="1">
         <v>11.839321</v>
       </c>
       <c r="BK12" s="1">
-        <v>1110.810000</v>
+        <v>1110.81</v>
       </c>
       <c r="BL12" s="1">
-        <v>-315.120000</v>
+        <v>-315.12</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>42633.074522</v>
+        <v>42633.074522000003</v>
       </c>
       <c r="BO12" s="1">
         <v>11.842521</v>
       </c>
       <c r="BP12" s="1">
-        <v>1219.100000</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-501.097000</v>
+        <v>-501.09699999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>42643.578269</v>
+        <v>42643.578268999998</v>
       </c>
       <c r="BT12" s="1">
         <v>11.845438</v>
       </c>
       <c r="BU12" s="1">
-        <v>1341.350000</v>
+        <v>1341.35</v>
       </c>
       <c r="BV12" s="1">
-        <v>-705.260000</v>
+        <v>-705.26</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>42654.431376</v>
       </c>
       <c r="BY12" s="1">
-        <v>11.848453</v>
+        <v>11.848452999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1478.190000</v>
+        <v>1478.19</v>
       </c>
       <c r="CA12" s="1">
-        <v>-923.593000</v>
+        <v>-923.59299999999996</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>42666.356544</v>
+        <v>42666.356544000002</v>
       </c>
       <c r="CD12" s="1">
         <v>11.851766</v>
       </c>
       <c r="CE12" s="1">
-        <v>1837.720000</v>
+        <v>1837.72</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1441.680000</v>
+        <v>-1441.68</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>42493.023125</v>
       </c>
@@ -3308,450 +3724,450 @@
         <v>11.803618</v>
       </c>
       <c r="C13" s="1">
-        <v>907.666000</v>
+        <v>907.66600000000005</v>
       </c>
       <c r="D13" s="1">
-        <v>-187.735000</v>
+        <v>-187.73500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>42503.446081</v>
+        <v>42503.446081000002</v>
       </c>
       <c r="G13" s="1">
-        <v>11.806513</v>
+        <v>11.806513000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>923.510000</v>
+        <v>923.51</v>
       </c>
       <c r="I13" s="1">
-        <v>-159.222000</v>
+        <v>-159.22200000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>42513.933960</v>
+        <v>42513.933960000002</v>
       </c>
       <c r="L13" s="1">
         <v>11.809426</v>
       </c>
       <c r="M13" s="1">
-        <v>944.861000</v>
+        <v>944.86099999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-114.994000</v>
+        <v>-114.994</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>42524.480891</v>
+        <v>42524.480890999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>11.812356</v>
+        <v>11.812355999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>951.558000</v>
+        <v>951.55799999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-100.365000</v>
+        <v>-100.36499999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>42535.283261</v>
+        <v>42535.283260999997</v>
       </c>
       <c r="V13" s="1">
         <v>11.815356</v>
       </c>
       <c r="W13" s="1">
-        <v>958.460000</v>
+        <v>958.46</v>
       </c>
       <c r="X13" s="1">
-        <v>-86.755700</v>
+        <v>-86.755700000000004</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>42545.728511</v>
+        <v>42545.728511000001</v>
       </c>
       <c r="AA13" s="1">
         <v>11.818258</v>
       </c>
       <c r="AB13" s="1">
-        <v>966.250000</v>
+        <v>966.25</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.402800</v>
+        <v>-76.402799999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>42556.230336</v>
+        <v>42556.230336000001</v>
       </c>
       <c r="AF13" s="1">
         <v>11.821175</v>
       </c>
       <c r="AG13" s="1">
-        <v>971.323000</v>
+        <v>971.32299999999998</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.651600</v>
+        <v>-74.651600000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>42567.058961</v>
+        <v>42567.058961000002</v>
       </c>
       <c r="AK13" s="1">
         <v>11.824183</v>
       </c>
       <c r="AL13" s="1">
-        <v>978.879000</v>
+        <v>978.87900000000002</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.722100</v>
+        <v>-79.722099999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>42578.123254</v>
+        <v>42578.123253999998</v>
       </c>
       <c r="AP13" s="1">
         <v>11.827256</v>
       </c>
       <c r="AQ13" s="1">
-        <v>987.153000</v>
+        <v>987.15300000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.496100</v>
+        <v>-91.496099999999998</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>42589.191940</v>
+        <v>42589.191939999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>11.830331</v>
+        <v>11.830330999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>997.132000</v>
+        <v>997.13199999999995</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.268000</v>
+        <v>-109.268</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>42600.318694</v>
+        <v>42600.318694000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>11.833422</v>
+        <v>11.833422000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.450000</v>
+        <v>1005.45</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.055000</v>
+        <v>-125.05500000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>42611.080391</v>
+        <v>42611.080391000003</v>
       </c>
       <c r="BE13" s="1">
         <v>11.836411</v>
       </c>
       <c r="BF13" s="1">
-        <v>1044.190000</v>
+        <v>1044.19</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.437000</v>
+        <v>-197.43700000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>42621.944762</v>
+        <v>42621.944761999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>11.839429</v>
+        <v>11.839429000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1110.810000</v>
+        <v>1110.81</v>
       </c>
       <c r="BL13" s="1">
-        <v>-315.102000</v>
+        <v>-315.10199999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>42633.470794</v>
+        <v>42633.470794000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>11.842631</v>
+        <v>11.842631000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1219.120000</v>
+        <v>1219.1199999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-501.074000</v>
+        <v>-501.07400000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>42644.006354</v>
+        <v>42644.006353999997</v>
       </c>
       <c r="BT13" s="1">
-        <v>11.845557</v>
+        <v>11.845556999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1341.390000</v>
+        <v>1341.39</v>
       </c>
       <c r="BV13" s="1">
-        <v>-705.272000</v>
+        <v>-705.27200000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>42654.851839</v>
+        <v>42654.851839000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>11.848570</v>
+        <v>11.84857</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1478.190000</v>
+        <v>1478.19</v>
       </c>
       <c r="CA13" s="1">
-        <v>-923.711000</v>
+        <v>-923.71100000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>42666.889246</v>
+        <v>42666.889245999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>11.851914</v>
+        <v>11.851914000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1838.180000</v>
+        <v>1838.18</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1443.050000</v>
+        <v>-1443.05</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>42493.365365</v>
+        <v>42493.365364999998</v>
       </c>
       <c r="B14" s="1">
         <v>11.803713</v>
       </c>
       <c r="C14" s="1">
-        <v>907.644000</v>
+        <v>907.64400000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-187.689000</v>
+        <v>-187.68899999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>42503.790773</v>
+        <v>42503.790773000001</v>
       </c>
       <c r="G14" s="1">
         <v>11.806609</v>
       </c>
       <c r="H14" s="1">
-        <v>923.317000</v>
+        <v>923.31700000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-159.043000</v>
+        <v>-159.04300000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>42514.627383</v>
+        <v>42514.627382999999</v>
       </c>
       <c r="L14" s="1">
         <v>11.809619</v>
       </c>
       <c r="M14" s="1">
-        <v>944.777000</v>
+        <v>944.77700000000004</v>
       </c>
       <c r="N14" s="1">
-        <v>-115.008000</v>
+        <v>-115.008</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>42525.174298</v>
+        <v>42525.174297999998</v>
       </c>
       <c r="Q14" s="1">
         <v>11.812548</v>
       </c>
       <c r="R14" s="1">
-        <v>951.605000</v>
+        <v>951.60500000000002</v>
       </c>
       <c r="S14" s="1">
-        <v>-100.382000</v>
+        <v>-100.38200000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>42535.625279</v>
       </c>
       <c r="V14" s="1">
-        <v>11.815451</v>
+        <v>11.815450999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>958.346000</v>
+        <v>958.346</v>
       </c>
       <c r="X14" s="1">
-        <v>-86.809700</v>
+        <v>-86.809700000000007</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>42546.077199</v>
+        <v>42546.077198999999</v>
       </c>
       <c r="AA14" s="1">
         <v>11.818355</v>
       </c>
       <c r="AB14" s="1">
-        <v>966.173000</v>
+        <v>966.173</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.467600</v>
+        <v>-76.467600000000004</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>42556.574031</v>
+        <v>42556.574030999996</v>
       </c>
       <c r="AF14" s="1">
-        <v>11.821271</v>
+        <v>11.821270999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>971.297000</v>
+        <v>971.29700000000003</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.742200</v>
+        <v>-74.742199999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>42567.722414</v>
+        <v>42567.722414000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>11.824367</v>
+        <v>11.824367000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>978.923000</v>
+        <v>978.923</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.740200</v>
+        <v>-79.740200000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>42578.548291</v>
+        <v>42578.548290999999</v>
       </c>
       <c r="AP14" s="1">
         <v>11.827375</v>
       </c>
       <c r="AQ14" s="1">
-        <v>987.189000</v>
+        <v>987.18899999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.471400</v>
+        <v>-91.471400000000003</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>42589.638340</v>
+        <v>42589.638339999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>11.830455</v>
+        <v>11.830455000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>997.138000</v>
+        <v>997.13800000000003</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.274000</v>
+        <v>-109.274</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>42600.694661</v>
+        <v>42600.694661000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>11.833526</v>
+        <v>11.833526000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1005.460000</v>
+        <v>1005.46</v>
       </c>
       <c r="BB14" s="1">
-        <v>-125.023000</v>
+        <v>-125.023</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>42611.443463</v>
+        <v>42611.443463000003</v>
       </c>
       <c r="BE14" s="1">
-        <v>11.836512</v>
+        <v>11.836512000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1044.160000</v>
+        <v>1044.1600000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.448000</v>
+        <v>-197.44800000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>42622.319241</v>
+        <v>42622.319240999997</v>
       </c>
       <c r="BJ14" s="1">
-        <v>11.839533</v>
+        <v>11.839532999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1110.810000</v>
+        <v>1110.81</v>
       </c>
       <c r="BL14" s="1">
-        <v>-315.125000</v>
+        <v>-315.125</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>42633.903305</v>
@@ -3760,332 +4176,332 @@
         <v>11.842751</v>
       </c>
       <c r="BP14" s="1">
-        <v>1219.090000</v>
+        <v>1219.0899999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-501.100000</v>
+        <v>-501.1</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>42644.420475</v>
+        <v>42644.420474999999</v>
       </c>
       <c r="BT14" s="1">
         <v>11.845672</v>
       </c>
       <c r="BU14" s="1">
-        <v>1341.480000</v>
+        <v>1341.48</v>
       </c>
       <c r="BV14" s="1">
-        <v>-705.260000</v>
+        <v>-705.26</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>42655.298237</v>
+        <v>42655.298237000003</v>
       </c>
       <c r="BY14" s="1">
         <v>11.848694</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1478.260000</v>
+        <v>1478.26</v>
       </c>
       <c r="CA14" s="1">
-        <v>-923.676000</v>
+        <v>-923.67600000000004</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>42667.405581</v>
+        <v>42667.405580999999</v>
       </c>
       <c r="CD14" s="1">
         <v>11.852057</v>
       </c>
       <c r="CE14" s="1">
-        <v>1839.280000</v>
+        <v>1839.28</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1442.470000</v>
+        <v>-1442.47</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>42494.048354</v>
+        <v>42494.048353999999</v>
       </c>
       <c r="B15" s="1">
-        <v>11.803902</v>
+        <v>11.803902000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>907.646000</v>
+        <v>907.64599999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-187.722000</v>
+        <v>-187.72200000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>42504.484212</v>
+        <v>42504.484212000003</v>
       </c>
       <c r="G15" s="1">
         <v>11.806801</v>
       </c>
       <c r="H15" s="1">
-        <v>923.079000</v>
+        <v>923.07899999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-159.391000</v>
+        <v>-159.39099999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>42514.973574</v>
+        <v>42514.973574000003</v>
       </c>
       <c r="L15" s="1">
-        <v>11.809715</v>
+        <v>11.809715000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>944.895000</v>
+        <v>944.89499999999998</v>
       </c>
       <c r="N15" s="1">
-        <v>-115.114000</v>
+        <v>-115.114</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>42525.523480</v>
+        <v>42525.523480000003</v>
       </c>
       <c r="Q15" s="1">
         <v>11.812645</v>
       </c>
       <c r="R15" s="1">
-        <v>951.597000</v>
+        <v>951.59699999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-100.362000</v>
+        <v>-100.36199999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>42535.968236</v>
+        <v>42535.968236000001</v>
       </c>
       <c r="V15" s="1">
         <v>11.815547</v>
       </c>
       <c r="W15" s="1">
-        <v>958.514000</v>
+        <v>958.51400000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-86.900000</v>
+        <v>-86.9</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>42546.740960</v>
+        <v>42546.740960000003</v>
       </c>
       <c r="AA15" s="1">
-        <v>11.818539</v>
+        <v>11.818538999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>966.252000</v>
+        <v>966.25199999999995</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.447100</v>
+        <v>-76.447100000000006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>42557.235733</v>
+        <v>42557.235733000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>11.821454</v>
+        <v>11.821453999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>971.300000</v>
+        <v>971.3</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.686900</v>
+        <v>-74.686899999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>42568.105827</v>
+        <v>42568.105826999999</v>
       </c>
       <c r="AK15" s="1">
         <v>11.824474</v>
       </c>
       <c r="AL15" s="1">
-        <v>978.886000</v>
+        <v>978.88599999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.734100</v>
+        <v>-79.734099999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>42578.910371</v>
+        <v>42578.910370999998</v>
       </c>
       <c r="AP15" s="1">
         <v>11.827475</v>
       </c>
       <c r="AQ15" s="1">
-        <v>987.170000</v>
+        <v>987.17</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.498300</v>
+        <v>-91.4983</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>42590.001907</v>
+        <v>42590.001906999998</v>
       </c>
       <c r="AU15" s="1">
         <v>11.830556</v>
       </c>
       <c r="AV15" s="1">
-        <v>997.141000</v>
+        <v>997.14099999999996</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.270000</v>
+        <v>-109.27</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>42601.054756</v>
+        <v>42601.054755999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>11.833626</v>
+        <v>11.833626000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1005.480000</v>
+        <v>1005.48</v>
       </c>
       <c r="BB15" s="1">
-        <v>-125.061000</v>
+        <v>-125.06100000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>42611.866055</v>
+        <v>42611.866054999999</v>
       </c>
       <c r="BE15" s="1">
         <v>11.836629</v>
       </c>
       <c r="BF15" s="1">
-        <v>1044.160000</v>
+        <v>1044.1600000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.417000</v>
+        <v>-197.417</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>42622.779534</v>
+        <v>42622.779534000001</v>
       </c>
       <c r="BJ15" s="1">
         <v>11.839661</v>
       </c>
       <c r="BK15" s="1">
-        <v>1110.820000</v>
+        <v>1110.82</v>
       </c>
       <c r="BL15" s="1">
-        <v>-315.104000</v>
+        <v>-315.10399999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>42634.289690</v>
+        <v>42634.289689999998</v>
       </c>
       <c r="BO15" s="1">
         <v>11.842858</v>
       </c>
       <c r="BP15" s="1">
-        <v>1219.100000</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-501.070000</v>
+        <v>-501.07</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>42644.850544</v>
+        <v>42644.850544000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>11.845792</v>
+        <v>11.845791999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1341.470000</v>
+        <v>1341.47</v>
       </c>
       <c r="BV15" s="1">
-        <v>-705.385000</v>
+        <v>-705.38499999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>42655.715378</v>
+        <v>42655.715378000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>11.848810</v>
+        <v>11.84881</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1478.250000</v>
+        <v>1478.25</v>
       </c>
       <c r="CA15" s="1">
-        <v>-923.700000</v>
+        <v>-923.7</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>42667.925388</v>
+        <v>42667.925388000003</v>
       </c>
       <c r="CD15" s="1">
-        <v>11.852201</v>
+        <v>11.852201000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1838.750000</v>
+        <v>1838.75</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1441.320000</v>
+        <v>-1441.32</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>42494.390595</v>
+        <v>42494.390594999997</v>
       </c>
       <c r="B16" s="1">
-        <v>11.803997</v>
+        <v>11.803997000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>907.682000</v>
+        <v>907.68200000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>-187.723000</v>
+        <v>-187.72300000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>42504.834852</v>
@@ -4094,43 +4510,43 @@
         <v>11.806899</v>
       </c>
       <c r="H16" s="1">
-        <v>923.211000</v>
+        <v>923.21100000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-159.083000</v>
+        <v>-159.083</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>42515.318326</v>
+        <v>42515.318326000001</v>
       </c>
       <c r="L16" s="1">
         <v>11.809811</v>
       </c>
       <c r="M16" s="1">
-        <v>944.740000</v>
+        <v>944.74</v>
       </c>
       <c r="N16" s="1">
-        <v>-115.117000</v>
+        <v>-115.117</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>42526.180679</v>
+        <v>42526.180678999997</v>
       </c>
       <c r="Q16" s="1">
         <v>11.812828</v>
       </c>
       <c r="R16" s="1">
-        <v>951.552000</v>
+        <v>951.55200000000002</v>
       </c>
       <c r="S16" s="1">
-        <v>-100.447000</v>
+        <v>-100.447</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>42536.630889</v>
@@ -4139,270 +4555,270 @@
         <v>11.815731</v>
       </c>
       <c r="W16" s="1">
-        <v>958.508000</v>
+        <v>958.50800000000004</v>
       </c>
       <c r="X16" s="1">
-        <v>-86.819500</v>
+        <v>-86.819500000000005</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>42547.125276</v>
+        <v>42547.125275999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>11.818646</v>
+        <v>11.818645999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>966.191000</v>
+        <v>966.19100000000003</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.387100</v>
+        <v>-76.387100000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>42557.600267</v>
+        <v>42557.600267000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>11.821556</v>
+        <v>11.821555999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>971.156000</v>
+        <v>971.15599999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.641500</v>
+        <v>-74.641499999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>42568.451765</v>
+        <v>42568.451764999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>11.824570</v>
+        <v>11.82457</v>
       </c>
       <c r="AL16" s="1">
-        <v>978.868000</v>
+        <v>978.86800000000005</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.746600</v>
+        <v>-79.746600000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>42579.270485</v>
+        <v>42579.270485000001</v>
       </c>
       <c r="AP16" s="1">
         <v>11.827575</v>
       </c>
       <c r="AQ16" s="1">
-        <v>987.159000</v>
+        <v>987.15899999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.486500</v>
+        <v>-91.486500000000007</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>42590.365977</v>
+        <v>42590.365977000001</v>
       </c>
       <c r="AU16" s="1">
         <v>11.830657</v>
       </c>
       <c r="AV16" s="1">
-        <v>997.145000</v>
+        <v>997.14499999999998</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.293000</v>
+        <v>-109.29300000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>42601.487269</v>
+        <v>42601.487268999997</v>
       </c>
       <c r="AZ16" s="1">
         <v>11.833746</v>
       </c>
       <c r="BA16" s="1">
-        <v>1005.470000</v>
+        <v>1005.47</v>
       </c>
       <c r="BB16" s="1">
-        <v>-125.060000</v>
+        <v>-125.06</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>42612.163654</v>
+        <v>42612.163654000004</v>
       </c>
       <c r="BE16" s="1">
         <v>11.836712</v>
       </c>
       <c r="BF16" s="1">
-        <v>1044.170000</v>
+        <v>1044.17</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.429000</v>
+        <v>-197.429</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>42623.071207</v>
+        <v>42623.071207000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>11.839742</v>
+        <v>11.839741999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1110.810000</v>
+        <v>1110.81</v>
       </c>
       <c r="BL16" s="1">
-        <v>-315.093000</v>
+        <v>-315.09300000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>42634.710297</v>
+        <v>42634.710296999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>11.842975</v>
+        <v>11.842974999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1219.100000</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-501.058000</v>
+        <v>-501.05799999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>42645.258714</v>
+        <v>42645.258714000003</v>
       </c>
       <c r="BT16" s="1">
         <v>11.845905</v>
       </c>
       <c r="BU16" s="1">
-        <v>1341.500000</v>
+        <v>1341.5</v>
       </c>
       <c r="BV16" s="1">
-        <v>-705.360000</v>
+        <v>-705.36</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>42656.278862</v>
+        <v>42656.278861999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>11.848966</v>
+        <v>11.848966000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1478.320000</v>
+        <v>1478.32</v>
       </c>
       <c r="CA16" s="1">
-        <v>-923.545000</v>
+        <v>-923.54499999999996</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>42668.440267</v>
+        <v>42668.440266999998</v>
       </c>
       <c r="CD16" s="1">
         <v>11.852345</v>
       </c>
       <c r="CE16" s="1">
-        <v>1839.050000</v>
+        <v>1839.05</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1441.390000</v>
+        <v>-1441.39</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>42494.726881</v>
+        <v>42494.726881000002</v>
       </c>
       <c r="B17" s="1">
         <v>11.804091</v>
       </c>
       <c r="C17" s="1">
-        <v>907.747000</v>
+        <v>907.74699999999996</v>
       </c>
       <c r="D17" s="1">
-        <v>-187.798000</v>
+        <v>-187.798</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>42505.180068</v>
+        <v>42505.180068000001</v>
       </c>
       <c r="G17" s="1">
         <v>11.806994</v>
       </c>
       <c r="H17" s="1">
-        <v>923.687000</v>
+        <v>923.68700000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-159.382000</v>
+        <v>-159.38200000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>42515.991366</v>
+        <v>42515.991366000002</v>
       </c>
       <c r="L17" s="1">
         <v>11.809998</v>
       </c>
       <c r="M17" s="1">
-        <v>944.822000</v>
+        <v>944.822</v>
       </c>
       <c r="N17" s="1">
-        <v>-114.998000</v>
+        <v>-114.998</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>42526.566071</v>
+        <v>42526.566071000001</v>
       </c>
       <c r="Q17" s="1">
         <v>11.812935</v>
       </c>
       <c r="R17" s="1">
-        <v>951.562000</v>
+        <v>951.56200000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-100.409000</v>
+        <v>-100.40900000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>42536.998954</v>
+        <v>42536.998954000002</v>
       </c>
       <c r="V17" s="1">
         <v>11.815833</v>
       </c>
       <c r="W17" s="1">
-        <v>958.473000</v>
+        <v>958.47299999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-86.773700</v>
+        <v>-86.773700000000005</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>42547.473435</v>
@@ -4411,28 +4827,28 @@
         <v>11.818743</v>
       </c>
       <c r="AB17" s="1">
-        <v>966.212000</v>
+        <v>966.21199999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.395500</v>
+        <v>-76.395499999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>42557.944974</v>
+        <v>42557.944973999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>11.821651</v>
+        <v>11.821650999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>971.263000</v>
+        <v>971.26300000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.604200</v>
+        <v>-74.604200000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>42568.802399</v>
@@ -4441,88 +4857,88 @@
         <v>11.824667</v>
       </c>
       <c r="AL17" s="1">
-        <v>978.898000</v>
+        <v>978.89800000000002</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.722500</v>
+        <v>-79.722499999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>42579.700530</v>
+        <v>42579.700530000002</v>
       </c>
       <c r="AP17" s="1">
         <v>11.827695</v>
       </c>
       <c r="AQ17" s="1">
-        <v>987.153000</v>
+        <v>987.15300000000002</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.491700</v>
+        <v>-91.491699999999994</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>42591.095585</v>
+        <v>42591.095585000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>11.830860</v>
+        <v>11.830859999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>997.138000</v>
+        <v>997.13800000000003</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.275000</v>
+        <v>-109.27500000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>42601.774452</v>
+        <v>42601.774451999998</v>
       </c>
       <c r="AZ17" s="1">
         <v>11.833826</v>
       </c>
       <c r="BA17" s="1">
-        <v>1005.470000</v>
+        <v>1005.47</v>
       </c>
       <c r="BB17" s="1">
-        <v>-125.048000</v>
+        <v>-125.048</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>42612.522758</v>
+        <v>42612.522757999999</v>
       </c>
       <c r="BE17" s="1">
         <v>11.836812</v>
       </c>
       <c r="BF17" s="1">
-        <v>1044.150000</v>
+        <v>1044.1500000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.440000</v>
+        <v>-197.44</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>42623.455575</v>
       </c>
       <c r="BJ17" s="1">
-        <v>11.839849</v>
+        <v>11.839848999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1110.820000</v>
+        <v>1110.82</v>
       </c>
       <c r="BL17" s="1">
-        <v>-315.108000</v>
+        <v>-315.108</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>42635.107591</v>
@@ -4531,75 +4947,75 @@
         <v>11.843085</v>
       </c>
       <c r="BP17" s="1">
-        <v>1219.080000</v>
+        <v>1219.08</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-501.096000</v>
+        <v>-501.096</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>42645.695691</v>
+        <v>42645.695691000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>11.846027</v>
+        <v>11.846026999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1341.480000</v>
+        <v>1341.48</v>
       </c>
       <c r="BV17" s="1">
-        <v>-705.411000</v>
+        <v>-705.41099999999994</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>42656.584860</v>
+        <v>42656.584860000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>11.849051</v>
+        <v>11.849050999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1478.280000</v>
+        <v>1478.28</v>
       </c>
       <c r="CA17" s="1">
-        <v>-923.599000</v>
+        <v>-923.59900000000005</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>42668.990796</v>
+        <v>42668.990795999998</v>
       </c>
       <c r="CD17" s="1">
         <v>11.852497</v>
       </c>
       <c r="CE17" s="1">
-        <v>1839.720000</v>
+        <v>1839.72</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1442.530000</v>
+        <v>-1442.53</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>42495.384080</v>
+        <v>42495.384080000003</v>
       </c>
       <c r="B18" s="1">
         <v>11.804273</v>
       </c>
       <c r="C18" s="1">
-        <v>907.658000</v>
+        <v>907.65800000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>-187.624000</v>
+        <v>-187.624</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>42505.841235</v>
@@ -4608,193 +5024,193 @@
         <v>11.807178</v>
       </c>
       <c r="H18" s="1">
-        <v>923.374000</v>
+        <v>923.37400000000002</v>
       </c>
       <c r="I18" s="1">
-        <v>-159.741000</v>
+        <v>-159.74100000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>42516.354972</v>
+        <v>42516.354972000001</v>
       </c>
       <c r="L18" s="1">
-        <v>11.810099</v>
+        <v>11.810098999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>944.978000</v>
+        <v>944.97799999999995</v>
       </c>
       <c r="N18" s="1">
-        <v>-115.064000</v>
+        <v>-115.06399999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>42526.906822</v>
+        <v>42526.906821999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>11.813030</v>
+        <v>11.813029999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>951.573000</v>
+        <v>951.57299999999998</v>
       </c>
       <c r="S18" s="1">
-        <v>-100.369000</v>
+        <v>-100.369</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>42537.343678</v>
+        <v>42537.343677999997</v>
       </c>
       <c r="V18" s="1">
-        <v>11.815929</v>
+        <v>11.815929000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>958.478000</v>
+        <v>958.47799999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-86.794400</v>
+        <v>-86.794399999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>42547.819676</v>
+        <v>42547.819675999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>11.818839</v>
+        <v>11.818839000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>966.252000</v>
+        <v>966.25199999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.472500</v>
+        <v>-76.472499999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>42558.544140</v>
+        <v>42558.544139999998</v>
       </c>
       <c r="AF18" s="1">
         <v>11.821818</v>
       </c>
       <c r="AG18" s="1">
-        <v>971.306000</v>
+        <v>971.30600000000004</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.666500</v>
+        <v>-74.666499999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>42569.234422</v>
+        <v>42569.234422000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>11.824787</v>
+        <v>11.824787000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>978.876000</v>
+        <v>978.87599999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.726700</v>
+        <v>-79.726699999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>42579.991154</v>
+        <v>42579.991154000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>11.827775</v>
+        <v>11.827775000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>987.167000</v>
+        <v>987.16700000000003</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.490300</v>
+        <v>-91.490300000000005</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>42591.458657</v>
+        <v>42591.458657000003</v>
       </c>
       <c r="AU18" s="1">
         <v>11.830961</v>
       </c>
       <c r="AV18" s="1">
-        <v>997.148000</v>
+        <v>997.14800000000002</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.275000</v>
+        <v>-109.27500000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>42602.133589</v>
+        <v>42602.133588999997</v>
       </c>
       <c r="AZ18" s="1">
         <v>11.833926</v>
       </c>
       <c r="BA18" s="1">
-        <v>1005.470000</v>
+        <v>1005.47</v>
       </c>
       <c r="BB18" s="1">
-        <v>-125.023000</v>
+        <v>-125.023</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>42612.888340</v>
+        <v>42612.888339999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>11.836913</v>
+        <v>11.836912999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1044.180000</v>
+        <v>1044.18</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.448000</v>
+        <v>-197.44800000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>42624.222886</v>
+        <v>42624.222886000003</v>
       </c>
       <c r="BJ18" s="1">
         <v>11.840062</v>
       </c>
       <c r="BK18" s="1">
-        <v>1110.790000</v>
+        <v>1110.79</v>
       </c>
       <c r="BL18" s="1">
-        <v>-315.128000</v>
+        <v>-315.12799999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>42635.532175</v>
       </c>
       <c r="BO18" s="1">
-        <v>11.843203</v>
+        <v>11.843203000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1219.080000</v>
+        <v>1219.08</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-501.099000</v>
+        <v>-501.09899999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>42646.121755</v>
@@ -4803,90 +5219,90 @@
         <v>11.846145</v>
       </c>
       <c r="BU18" s="1">
-        <v>1341.560000</v>
+        <v>1341.56</v>
       </c>
       <c r="BV18" s="1">
-        <v>-705.427000</v>
+        <v>-705.42700000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>42657.020877</v>
+        <v>42657.020877000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>11.849172</v>
+        <v>11.849171999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1478.240000</v>
+        <v>1478.24</v>
       </c>
       <c r="CA18" s="1">
-        <v>-923.726000</v>
+        <v>-923.726</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>42669.523002</v>
+        <v>42669.523002000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>11.852645</v>
+        <v>11.852645000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1838.890000</v>
+        <v>1838.89</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1441.630000</v>
+        <v>-1441.63</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>42495.753103</v>
+        <v>42495.753103000003</v>
       </c>
       <c r="B19" s="1">
         <v>11.804376</v>
       </c>
       <c r="C19" s="1">
-        <v>907.742000</v>
+        <v>907.74199999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>-187.760000</v>
+        <v>-187.76</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>42506.210296</v>
+        <v>42506.210295999997</v>
       </c>
       <c r="G19" s="1">
         <v>11.807281</v>
       </c>
       <c r="H19" s="1">
-        <v>923.610000</v>
+        <v>923.61</v>
       </c>
       <c r="I19" s="1">
-        <v>-159.684000</v>
+        <v>-159.684</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>42516.702133</v>
+        <v>42516.702132999999</v>
       </c>
       <c r="L19" s="1">
         <v>11.810195</v>
       </c>
       <c r="M19" s="1">
-        <v>944.863000</v>
+        <v>944.86300000000006</v>
       </c>
       <c r="N19" s="1">
-        <v>-115.036000</v>
+        <v>-115.036</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>42527.265926</v>
@@ -4895,450 +5311,450 @@
         <v>11.813129</v>
       </c>
       <c r="R19" s="1">
-        <v>951.580000</v>
+        <v>951.58</v>
       </c>
       <c r="S19" s="1">
-        <v>-100.380000</v>
+        <v>-100.38</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>42537.693335</v>
+        <v>42537.693335000004</v>
       </c>
       <c r="V19" s="1">
-        <v>11.816026</v>
+        <v>11.816026000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>958.441000</v>
+        <v>958.44100000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-86.815700</v>
+        <v>-86.815700000000007</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>42548.251195</v>
+        <v>42548.251194999997</v>
       </c>
       <c r="AA19" s="1">
         <v>11.818959</v>
       </c>
       <c r="AB19" s="1">
-        <v>966.266000</v>
+        <v>966.26599999999996</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.335400</v>
+        <v>-76.335400000000007</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>42558.977148</v>
+        <v>42558.977147999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>11.821938</v>
+        <v>11.821937999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>971.255000</v>
+        <v>971.255</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.668200</v>
+        <v>-74.668199999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>42569.501791</v>
+        <v>42569.501791000002</v>
       </c>
       <c r="AK19" s="1">
         <v>11.824862</v>
       </c>
       <c r="AL19" s="1">
-        <v>978.892000</v>
+        <v>978.89200000000005</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.731300</v>
+        <v>-79.731300000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>42580.348768</v>
+        <v>42580.348768000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>11.827875</v>
+        <v>11.827875000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>987.192000</v>
+        <v>987.19200000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.487600</v>
+        <v>-91.4876</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>42591.821233</v>
+        <v>42591.821233000002</v>
       </c>
       <c r="AU19" s="1">
         <v>11.831061</v>
       </c>
       <c r="AV19" s="1">
-        <v>997.156000</v>
+        <v>997.15599999999995</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.268000</v>
+        <v>-109.268</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>42602.491207</v>
+        <v>42602.491206999999</v>
       </c>
       <c r="AZ19" s="1">
         <v>11.834025</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.450000</v>
+        <v>1005.45</v>
       </c>
       <c r="BB19" s="1">
-        <v>-125.058000</v>
+        <v>-125.05800000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>42613.609492</v>
+        <v>42613.609492000003</v>
       </c>
       <c r="BE19" s="1">
         <v>11.837114</v>
       </c>
       <c r="BF19" s="1">
-        <v>1044.170000</v>
+        <v>1044.17</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.424000</v>
+        <v>-197.42400000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>42624.596405</v>
+        <v>42624.596404999997</v>
       </c>
       <c r="BJ19" s="1">
         <v>11.840166</v>
       </c>
       <c r="BK19" s="1">
-        <v>1110.810000</v>
+        <v>1110.81</v>
       </c>
       <c r="BL19" s="1">
-        <v>-315.130000</v>
+        <v>-315.13</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>42635.923542</v>
+        <v>42635.923541999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>11.843312</v>
+        <v>11.843311999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1219.130000</v>
+        <v>1219.1300000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-501.101000</v>
+        <v>-501.101</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>42646.530952</v>
+        <v>42646.530952000001</v>
       </c>
       <c r="BT19" s="1">
         <v>11.846259</v>
       </c>
       <c r="BU19" s="1">
-        <v>1341.560000</v>
+        <v>1341.56</v>
       </c>
       <c r="BV19" s="1">
-        <v>-705.507000</v>
+        <v>-705.50699999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>42657.750489</v>
+        <v>42657.750488999998</v>
       </c>
       <c r="BY19" s="1">
         <v>11.849375</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1478.250000</v>
+        <v>1478.25</v>
       </c>
       <c r="CA19" s="1">
-        <v>-923.702000</v>
+        <v>-923.702</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>42670.352314</v>
+        <v>42670.352314000003</v>
       </c>
       <c r="CD19" s="1">
         <v>11.852876</v>
       </c>
       <c r="CE19" s="1">
-        <v>1837.920000</v>
+        <v>1837.92</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1442.300000</v>
+        <v>-1442.3</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>42496.097855</v>
       </c>
       <c r="B20" s="1">
-        <v>11.804472</v>
+        <v>11.804472000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>907.638000</v>
+        <v>907.63800000000003</v>
       </c>
       <c r="D20" s="1">
-        <v>-187.571000</v>
+        <v>-187.571</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>42506.555475</v>
+        <v>42506.555475000001</v>
       </c>
       <c r="G20" s="1">
-        <v>11.807377</v>
+        <v>11.807377000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>923.393000</v>
+        <v>923.39300000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>-159.626000</v>
+        <v>-159.626</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>42517.048868</v>
+        <v>42517.048867999998</v>
       </c>
       <c r="L20" s="1">
-        <v>11.810291</v>
+        <v>11.810290999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>944.940000</v>
+        <v>944.94</v>
       </c>
       <c r="N20" s="1">
-        <v>-115.033000</v>
+        <v>-115.033</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>42527.688022</v>
+        <v>42527.688022000002</v>
       </c>
       <c r="Q20" s="1">
         <v>11.813247</v>
       </c>
       <c r="R20" s="1">
-        <v>951.607000</v>
+        <v>951.60699999999997</v>
       </c>
       <c r="S20" s="1">
-        <v>-100.419000</v>
+        <v>-100.419</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>42538.123849</v>
+        <v>42538.123849000003</v>
       </c>
       <c r="V20" s="1">
         <v>11.816146</v>
       </c>
       <c r="W20" s="1">
-        <v>958.377000</v>
+        <v>958.37699999999995</v>
       </c>
       <c r="X20" s="1">
-        <v>-86.817900</v>
+        <v>-86.817899999999995</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>42548.522010</v>
+        <v>42548.522010000001</v>
       </c>
       <c r="AA20" s="1">
         <v>11.819034</v>
       </c>
       <c r="AB20" s="1">
-        <v>966.355000</v>
+        <v>966.35500000000002</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.498000</v>
+        <v>-76.498000000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>42559.323252</v>
+        <v>42559.323252000002</v>
       </c>
       <c r="AF20" s="1">
         <v>11.822034</v>
       </c>
       <c r="AG20" s="1">
-        <v>971.320000</v>
+        <v>971.32</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.713400</v>
+        <v>-74.713399999999993</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>42569.862350</v>
+        <v>42569.862350000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>11.824962</v>
+        <v>11.824961999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>978.868000</v>
+        <v>978.86800000000005</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.736900</v>
+        <v>-79.736900000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>42580.710352</v>
+        <v>42580.710352000002</v>
       </c>
       <c r="AP20" s="1">
         <v>11.827975</v>
       </c>
       <c r="AQ20" s="1">
-        <v>987.166000</v>
+        <v>987.16600000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.493000</v>
+        <v>-91.492999999999995</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>42592.550879</v>
+        <v>42592.550879000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>11.831264</v>
+        <v>11.831263999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>997.135000</v>
+        <v>997.13499999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.279000</v>
+        <v>-109.279</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>42603.211891</v>
+        <v>42603.211890999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>11.834226</v>
+        <v>11.834225999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1005.470000</v>
+        <v>1005.47</v>
       </c>
       <c r="BB20" s="1">
-        <v>-125.046000</v>
+        <v>-125.04600000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>42613.969124</v>
+        <v>42613.969124000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>11.837214</v>
+        <v>11.837213999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1044.140000</v>
+        <v>1044.1400000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.436000</v>
+        <v>-197.43600000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>42624.971877</v>
+        <v>42624.971877000004</v>
       </c>
       <c r="BJ20" s="1">
-        <v>11.840270</v>
+        <v>11.84027</v>
       </c>
       <c r="BK20" s="1">
-        <v>1110.820000</v>
+        <v>1110.82</v>
       </c>
       <c r="BL20" s="1">
-        <v>-315.113000</v>
+        <v>-315.113</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>42636.343159</v>
+        <v>42636.343158999996</v>
       </c>
       <c r="BO20" s="1">
         <v>11.843429</v>
       </c>
       <c r="BP20" s="1">
-        <v>1219.110000</v>
+        <v>1219.1099999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-501.067000</v>
+        <v>-501.06700000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>42647.287849</v>
       </c>
       <c r="BT20" s="1">
-        <v>11.846469</v>
+        <v>11.846469000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1341.570000</v>
+        <v>1341.57</v>
       </c>
       <c r="BV20" s="1">
-        <v>-705.550000</v>
+        <v>-705.55</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>42657.891353</v>
+        <v>42657.891352999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>11.849414</v>
+        <v>11.849413999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1478.260000</v>
+        <v>1478.26</v>
       </c>
       <c r="CA20" s="1">
-        <v>-923.607000</v>
+        <v>-923.60699999999997</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>42670.559641</v>
@@ -5347,45 +5763,45 @@
         <v>11.852933</v>
       </c>
       <c r="CE20" s="1">
-        <v>1838.840000</v>
+        <v>1838.84</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1443.060000</v>
+        <v>-1443.06</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>42496.436624</v>
+        <v>42496.436624000002</v>
       </c>
       <c r="B21" s="1">
-        <v>11.804566</v>
+        <v>11.804565999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>907.676000</v>
+        <v>907.67600000000004</v>
       </c>
       <c r="D21" s="1">
-        <v>-187.613000</v>
+        <v>-187.613</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>42506.898705</v>
       </c>
       <c r="G21" s="1">
-        <v>11.807472</v>
+        <v>11.807472000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>923.343000</v>
+        <v>923.34299999999996</v>
       </c>
       <c r="I21" s="1">
-        <v>-159.505000</v>
+        <v>-159.505</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>42517.480851</v>
@@ -5394,73 +5810,73 @@
         <v>11.810411</v>
       </c>
       <c r="M21" s="1">
-        <v>944.980000</v>
+        <v>944.98</v>
       </c>
       <c r="N21" s="1">
-        <v>-115.019000</v>
+        <v>-115.01900000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>42527.961318</v>
+        <v>42527.961318000001</v>
       </c>
       <c r="Q21" s="1">
         <v>11.813323</v>
       </c>
       <c r="R21" s="1">
-        <v>951.609000</v>
+        <v>951.60900000000004</v>
       </c>
       <c r="S21" s="1">
-        <v>-100.393000</v>
+        <v>-100.393</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>42538.397639</v>
+        <v>42538.397639000003</v>
       </c>
       <c r="V21" s="1">
         <v>11.816222</v>
       </c>
       <c r="W21" s="1">
-        <v>958.488000</v>
+        <v>958.48800000000006</v>
       </c>
       <c r="X21" s="1">
-        <v>-86.808300</v>
+        <v>-86.808300000000003</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>42548.872651</v>
+        <v>42548.872650999998</v>
       </c>
       <c r="AA21" s="1">
         <v>11.819131</v>
       </c>
       <c r="AB21" s="1">
-        <v>966.194000</v>
+        <v>966.19399999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.439500</v>
+        <v>-76.439499999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>42559.671052</v>
+        <v>42559.671051999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>11.822131</v>
+        <v>11.822131000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>971.330000</v>
+        <v>971.33</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.666700</v>
+        <v>-74.666700000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>42570.210045</v>
@@ -5469,13 +5885,13 @@
         <v>11.825058</v>
       </c>
       <c r="AL21" s="1">
-        <v>978.852000</v>
+        <v>978.85199999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.764800</v>
+        <v>-79.764799999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>42581.428558</v>
@@ -5484,73 +5900,73 @@
         <v>11.828175</v>
       </c>
       <c r="AQ21" s="1">
-        <v>987.158000</v>
+        <v>987.15800000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.470700</v>
+        <v>-91.470699999999994</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>42592.920109</v>
+        <v>42592.920108999999</v>
       </c>
       <c r="AU21" s="1">
         <v>11.831367</v>
       </c>
       <c r="AV21" s="1">
-        <v>997.135000</v>
+        <v>997.13499999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.286000</v>
+        <v>-109.286</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>42603.587361</v>
+        <v>42603.587360999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>11.834330</v>
+        <v>11.83433</v>
       </c>
       <c r="BA21" s="1">
-        <v>1005.460000</v>
+        <v>1005.46</v>
       </c>
       <c r="BB21" s="1">
-        <v>-125.059000</v>
+        <v>-125.059</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>42614.329683</v>
+        <v>42614.329683000004</v>
       </c>
       <c r="BE21" s="1">
-        <v>11.837314</v>
+        <v>11.837313999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1044.160000</v>
+        <v>1044.1600000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.448000</v>
+        <v>-197.44800000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>42625.696500</v>
+        <v>42625.696499999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>11.840471</v>
+        <v>11.840471000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1110.770000</v>
+        <v>1110.77</v>
       </c>
       <c r="BL21" s="1">
-        <v>-315.113000</v>
+        <v>-315.113</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>42637.056374</v>
@@ -5559,75 +5975,75 @@
         <v>11.843627</v>
       </c>
       <c r="BP21" s="1">
-        <v>1219.080000</v>
+        <v>1219.08</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-501.135000</v>
+        <v>-501.13499999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>42647.400441</v>
+        <v>42647.400440999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>11.846500</v>
+        <v>11.846500000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1341.570000</v>
+        <v>1341.57</v>
       </c>
       <c r="BV21" s="1">
-        <v>-705.589000</v>
+        <v>-705.58900000000006</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>42658.317417</v>
+        <v>42658.317416999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>11.849533</v>
+        <v>11.849532999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1478.280000</v>
+        <v>1478.28</v>
       </c>
       <c r="CA21" s="1">
-        <v>-923.619000</v>
+        <v>-923.61900000000003</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>42671.076473</v>
+        <v>42671.076473000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>11.853077</v>
+        <v>11.853077000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1838.300000</v>
+        <v>1838.3</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1443.100000</v>
+        <v>-1443.1</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>42496.856743</v>
+        <v>42496.856742999997</v>
       </c>
       <c r="B22" s="1">
         <v>11.804682</v>
       </c>
       <c r="C22" s="1">
-        <v>907.644000</v>
+        <v>907.64400000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-187.704000</v>
+        <v>-187.70400000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>42507.318818</v>
@@ -5636,88 +6052,88 @@
         <v>11.807589</v>
       </c>
       <c r="H22" s="1">
-        <v>923.406000</v>
+        <v>923.40599999999995</v>
       </c>
       <c r="I22" s="1">
-        <v>-159.600000</v>
+        <v>-159.6</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>42517.757618</v>
+        <v>42517.757618000003</v>
       </c>
       <c r="L22" s="1">
-        <v>11.810488</v>
+        <v>11.810487999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>944.755000</v>
+        <v>944.755</v>
       </c>
       <c r="N22" s="1">
-        <v>-115.070000</v>
+        <v>-115.07</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>42528.312020</v>
+        <v>42528.312019999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>11.813420</v>
+        <v>11.813420000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>951.552000</v>
+        <v>951.55200000000002</v>
       </c>
       <c r="S22" s="1">
-        <v>-100.415000</v>
+        <v>-100.41500000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>42538.737435</v>
+        <v>42538.737435000003</v>
       </c>
       <c r="V22" s="1">
         <v>11.816316</v>
       </c>
       <c r="W22" s="1">
-        <v>958.431000</v>
+        <v>958.43100000000004</v>
       </c>
       <c r="X22" s="1">
-        <v>-86.762300</v>
+        <v>-86.762299999999996</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>42549.219358</v>
+        <v>42549.219358000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>11.819228</v>
+        <v>11.819228000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>966.241000</v>
+        <v>966.24099999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.429400</v>
+        <v>-76.429400000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>42560.356522</v>
+        <v>42560.356522000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>11.822321</v>
+        <v>11.822321000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>971.294000</v>
+        <v>971.29399999999998</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.696000</v>
+        <v>-74.695999999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>42570.904446</v>
@@ -5726,28 +6142,28 @@
         <v>11.825251</v>
       </c>
       <c r="AL22" s="1">
-        <v>978.882000</v>
+        <v>978.88199999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.742400</v>
+        <v>-79.742400000000004</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>42581.789646</v>
+        <v>42581.789645999997</v>
       </c>
       <c r="AP22" s="1">
         <v>11.828275</v>
       </c>
       <c r="AQ22" s="1">
-        <v>987.158000</v>
+        <v>987.15800000000002</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.486200</v>
+        <v>-91.486199999999997</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>42593.280498</v>
@@ -5756,150 +6172,150 @@
         <v>11.831467</v>
       </c>
       <c r="AV22" s="1">
-        <v>997.138000</v>
+        <v>997.13800000000003</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.269000</v>
+        <v>-109.26900000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>42603.969747</v>
+        <v>42603.969747000003</v>
       </c>
       <c r="AZ22" s="1">
         <v>11.834436</v>
       </c>
       <c r="BA22" s="1">
-        <v>1005.460000</v>
+        <v>1005.46</v>
       </c>
       <c r="BB22" s="1">
-        <v>-125.021000</v>
+        <v>-125.021</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>42614.999778</v>
+        <v>42614.999777999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>11.837500</v>
+        <v>11.8375</v>
       </c>
       <c r="BF22" s="1">
-        <v>1044.180000</v>
+        <v>1044.18</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.448000</v>
+        <v>-197.44800000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>42626.120613</v>
+        <v>42626.120612999999</v>
       </c>
       <c r="BJ22" s="1">
         <v>11.840589</v>
       </c>
       <c r="BK22" s="1">
-        <v>1110.800000</v>
+        <v>1110.8</v>
       </c>
       <c r="BL22" s="1">
-        <v>-315.119000</v>
+        <v>-315.11900000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>42637.178885</v>
+        <v>42637.178885000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>11.843661</v>
+        <v>11.843661000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1219.090000</v>
+        <v>1219.0899999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-501.099000</v>
+        <v>-501.09899999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>42647.828487</v>
+        <v>42647.828486999999</v>
       </c>
       <c r="BT22" s="1">
         <v>11.846619</v>
       </c>
       <c r="BU22" s="1">
-        <v>1341.560000</v>
+        <v>1341.56</v>
       </c>
       <c r="BV22" s="1">
-        <v>-705.601000</v>
+        <v>-705.601</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>42658.767288</v>
+        <v>42658.767288000003</v>
       </c>
       <c r="BY22" s="1">
         <v>11.849658</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1478.180000</v>
+        <v>1478.18</v>
       </c>
       <c r="CA22" s="1">
-        <v>-923.596000</v>
+        <v>-923.596</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>42671.640424</v>
+        <v>42671.640423999997</v>
       </c>
       <c r="CD22" s="1">
-        <v>11.853233</v>
+        <v>11.853232999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1838.080000</v>
+        <v>1838.08</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1441.840000</v>
+        <v>-1441.84</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>42497.133471</v>
+        <v>42497.133471000001</v>
       </c>
       <c r="B23" s="1">
-        <v>11.804759</v>
+        <v>11.804759000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>907.628000</v>
+        <v>907.62800000000004</v>
       </c>
       <c r="D23" s="1">
-        <v>-187.760000</v>
+        <v>-187.76</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>42507.591617</v>
+        <v>42507.591616999998</v>
       </c>
       <c r="G23" s="1">
-        <v>11.807664</v>
+        <v>11.807664000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>923.269000</v>
+        <v>923.26900000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-159.262000</v>
+        <v>-159.262</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>42518.101875</v>
@@ -5908,118 +6324,118 @@
         <v>11.810584</v>
       </c>
       <c r="M23" s="1">
-        <v>944.790000</v>
+        <v>944.79</v>
       </c>
       <c r="N23" s="1">
-        <v>-115.111000</v>
+        <v>-115.111</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>42528.661172</v>
       </c>
       <c r="Q23" s="1">
-        <v>11.813517</v>
+        <v>11.813516999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>951.557000</v>
+        <v>951.55700000000002</v>
       </c>
       <c r="S23" s="1">
-        <v>-100.376000</v>
+        <v>-100.376</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>42539.071713</v>
+        <v>42539.071712999998</v>
       </c>
       <c r="V23" s="1">
         <v>11.816409</v>
       </c>
       <c r="W23" s="1">
-        <v>958.499000</v>
+        <v>958.49900000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-86.802200</v>
+        <v>-86.802199999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>42549.918748</v>
+        <v>42549.918747999996</v>
       </c>
       <c r="AA23" s="1">
-        <v>11.819422</v>
+        <v>11.819421999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>966.258000</v>
+        <v>966.25800000000004</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.423500</v>
+        <v>-76.423500000000004</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>42560.700285</v>
+        <v>42560.700284999999</v>
       </c>
       <c r="AF23" s="1">
         <v>11.822417</v>
       </c>
       <c r="AG23" s="1">
-        <v>971.317000</v>
+        <v>971.31700000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.695800</v>
+        <v>-74.695800000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>42571.250652</v>
+        <v>42571.250652000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>11.825347</v>
+        <v>11.825347000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>978.882000</v>
+        <v>978.88199999999995</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.743800</v>
+        <v>-79.743799999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>42582.152753</v>
+        <v>42582.152753000002</v>
       </c>
       <c r="AP23" s="1">
         <v>11.828376</v>
       </c>
       <c r="AQ23" s="1">
-        <v>987.170000</v>
+        <v>987.17</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.463400</v>
+        <v>-91.463399999999993</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>42593.975854</v>
+        <v>42593.975853999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>11.831660</v>
+        <v>11.831659999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>997.135000</v>
+        <v>997.13499999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.300000</v>
+        <v>-109.3</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>42604.640368</v>
@@ -6028,330 +6444,330 @@
         <v>11.834622</v>
       </c>
       <c r="BA23" s="1">
-        <v>1005.470000</v>
+        <v>1005.47</v>
       </c>
       <c r="BB23" s="1">
-        <v>-125.055000</v>
+        <v>-125.05500000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>42615.440227</v>
+        <v>42615.440226999999</v>
       </c>
       <c r="BE23" s="1">
         <v>11.837622</v>
       </c>
       <c r="BF23" s="1">
-        <v>1044.190000</v>
+        <v>1044.19</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.433000</v>
+        <v>-197.43299999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>42626.527826</v>
+        <v>42626.527825999998</v>
       </c>
       <c r="BJ23" s="1">
         <v>11.840702</v>
       </c>
       <c r="BK23" s="1">
-        <v>1110.810000</v>
+        <v>1110.81</v>
       </c>
       <c r="BL23" s="1">
-        <v>-315.117000</v>
+        <v>-315.11700000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>42637.589108</v>
       </c>
       <c r="BO23" s="1">
-        <v>11.843775</v>
+        <v>11.843775000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1219.140000</v>
+        <v>1219.1400000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-501.068000</v>
+        <v>-501.06799999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>42648.241194</v>
+        <v>42648.241194000002</v>
       </c>
       <c r="BT23" s="1">
         <v>11.846734</v>
       </c>
       <c r="BU23" s="1">
-        <v>1341.550000</v>
+        <v>1341.55</v>
       </c>
       <c r="BV23" s="1">
-        <v>-705.693000</v>
+        <v>-705.69299999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>42659.195800</v>
+        <v>42659.195800000001</v>
       </c>
       <c r="BY23" s="1">
         <v>11.849777</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1478.240000</v>
+        <v>1478.24</v>
       </c>
       <c r="CA23" s="1">
-        <v>-923.720000</v>
+        <v>-923.72</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>42672.159736</v>
+        <v>42672.159736000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>11.853378</v>
+        <v>11.853377999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1838.640000</v>
+        <v>1838.64</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1443.190000</v>
+        <v>-1443.19</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>42497.475709</v>
+        <v>42497.475708999998</v>
       </c>
       <c r="B24" s="1">
-        <v>11.804854</v>
+        <v>11.804854000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>907.604000</v>
+        <v>907.60400000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-187.744000</v>
+        <v>-187.744</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>42507.936368</v>
+        <v>42507.936368000002</v>
       </c>
       <c r="G24" s="1">
-        <v>11.807760</v>
+        <v>11.80776</v>
       </c>
       <c r="H24" s="1">
-        <v>923.169000</v>
+        <v>923.16899999999998</v>
       </c>
       <c r="I24" s="1">
-        <v>-159.573000</v>
+        <v>-159.57300000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>42518.450066</v>
+        <v>42518.450065999998</v>
       </c>
       <c r="L24" s="1">
-        <v>11.810681</v>
+        <v>11.810681000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>944.881000</v>
+        <v>944.88099999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-114.861000</v>
+        <v>-114.861</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>42529.359315</v>
+        <v>42529.359315000002</v>
       </c>
       <c r="Q24" s="1">
         <v>11.813711</v>
       </c>
       <c r="R24" s="1">
-        <v>951.576000</v>
+        <v>951.57600000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-100.305000</v>
+        <v>-100.30500000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>42539.770601</v>
+        <v>42539.770600999997</v>
       </c>
       <c r="V24" s="1">
-        <v>11.816603</v>
+        <v>11.816603000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>958.419000</v>
+        <v>958.41899999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-86.748700</v>
+        <v>-86.748699999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>42550.266408</v>
+        <v>42550.266408000003</v>
       </c>
       <c r="AA24" s="1">
         <v>11.819518</v>
       </c>
       <c r="AB24" s="1">
-        <v>966.201000</v>
+        <v>966.20100000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.392600</v>
+        <v>-76.392600000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>42561.047451</v>
+        <v>42561.047450999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>11.822513</v>
+        <v>11.822513000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>971.325000</v>
+        <v>971.32500000000005</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.657800</v>
+        <v>-74.657799999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>42571.600830</v>
+        <v>42571.600830000003</v>
       </c>
       <c r="AK24" s="1">
         <v>11.825445</v>
       </c>
       <c r="AL24" s="1">
-        <v>978.884000</v>
+        <v>978.88400000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.746600</v>
+        <v>-79.746600000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>42582.833726</v>
+        <v>42582.833725999997</v>
       </c>
       <c r="AP24" s="1">
-        <v>11.828565</v>
+        <v>11.828564999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>987.163000</v>
+        <v>987.16300000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.482100</v>
+        <v>-91.482100000000003</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>42594.405427</v>
+        <v>42594.405426999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>11.831779</v>
+        <v>11.831778999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>997.141000</v>
+        <v>997.14099999999996</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.281000</v>
+        <v>-109.28100000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>42605.052511</v>
+        <v>42605.052511000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>11.834737</v>
+        <v>11.834737000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1005.460000</v>
+        <v>1005.46</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.051000</v>
+        <v>-125.051</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>42615.801507</v>
+        <v>42615.801506999996</v>
       </c>
       <c r="BE24" s="1">
         <v>11.837723</v>
       </c>
       <c r="BF24" s="1">
-        <v>1044.160000</v>
+        <v>1044.1600000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.431000</v>
+        <v>-197.43100000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>42626.904258</v>
+        <v>42626.904258000002</v>
       </c>
       <c r="BJ24" s="1">
         <v>11.840807</v>
       </c>
       <c r="BK24" s="1">
-        <v>1110.800000</v>
+        <v>1110.8</v>
       </c>
       <c r="BL24" s="1">
-        <v>-315.140000</v>
+        <v>-315.14</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>42637.985908</v>
+        <v>42637.985908000002</v>
       </c>
       <c r="BO24" s="1">
         <v>11.843885</v>
       </c>
       <c r="BP24" s="1">
-        <v>1219.130000</v>
+        <v>1219.1300000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-501.079000</v>
+        <v>-501.07900000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>42648.672211</v>
+        <v>42648.672210999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>11.846853</v>
+        <v>11.846852999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1341.530000</v>
+        <v>1341.53</v>
       </c>
       <c r="BV24" s="1">
-        <v>-705.684000</v>
+        <v>-705.68399999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>42659.615951</v>
@@ -6360,225 +6776,225 @@
         <v>11.849893</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1478.220000</v>
+        <v>1478.22</v>
       </c>
       <c r="CA24" s="1">
-        <v>-923.549000</v>
+        <v>-923.54899999999998</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>42672.676598</v>
+        <v>42672.676597999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>11.853521</v>
+        <v>11.853521000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1839.820000</v>
+        <v>1839.82</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1442.620000</v>
+        <v>-1442.62</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>42497.820429</v>
+        <v>42497.820428999999</v>
       </c>
       <c r="B25" s="1">
-        <v>11.804950</v>
+        <v>11.80495</v>
       </c>
       <c r="C25" s="1">
-        <v>907.549000</v>
+        <v>907.54899999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>-187.777000</v>
+        <v>-187.77699999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>42508.283535</v>
+        <v>42508.283535000002</v>
       </c>
       <c r="G25" s="1">
         <v>11.807857</v>
       </c>
       <c r="H25" s="1">
-        <v>923.326000</v>
+        <v>923.32600000000002</v>
       </c>
       <c r="I25" s="1">
-        <v>-159.170000</v>
+        <v>-159.16999999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>42519.143338</v>
+        <v>42519.143338000002</v>
       </c>
       <c r="L25" s="1">
-        <v>11.810873</v>
+        <v>11.810873000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>944.790000</v>
+        <v>944.79</v>
       </c>
       <c r="N25" s="1">
-        <v>-115.220000</v>
+        <v>-115.22</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>42529.706774</v>
+        <v>42529.706773999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>11.813807</v>
+        <v>11.813807000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>951.614000</v>
+        <v>951.61400000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-100.413000</v>
+        <v>-100.413</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>42540.116309</v>
+        <v>42540.116308999997</v>
       </c>
       <c r="V25" s="1">
         <v>11.816699</v>
       </c>
       <c r="W25" s="1">
-        <v>958.457000</v>
+        <v>958.45699999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-86.763000</v>
+        <v>-86.763000000000005</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>42550.614599</v>
       </c>
       <c r="AA25" s="1">
-        <v>11.819615</v>
+        <v>11.819615000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>966.220000</v>
+        <v>966.22</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.495500</v>
+        <v>-76.495500000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>42561.693241</v>
+        <v>42561.693241000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>11.822693</v>
+        <v>11.822692999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>971.285000</v>
+        <v>971.28499999999997</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.686300</v>
+        <v>-74.686300000000003</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>42572.265962</v>
+        <v>42572.265961999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>11.825629</v>
+        <v>11.825628999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>978.890000</v>
+        <v>978.89</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.742700</v>
+        <v>-79.742699999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>42583.259319</v>
+        <v>42583.259318999997</v>
       </c>
       <c r="AP25" s="1">
         <v>11.828683</v>
       </c>
       <c r="AQ25" s="1">
-        <v>987.163000</v>
+        <v>987.16300000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.491500</v>
+        <v>-91.491500000000002</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>42594.770446</v>
+        <v>42594.770446000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>11.831881</v>
+        <v>11.831880999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>997.158000</v>
+        <v>997.15800000000002</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.284000</v>
+        <v>-109.28400000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>42605.427022</v>
+        <v>42605.427022000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>11.834841</v>
+        <v>11.834841000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1005.470000</v>
+        <v>1005.47</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.059000</v>
+        <v>-125.059</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>42616.163425</v>
+        <v>42616.163424999999</v>
       </c>
       <c r="BE25" s="1">
         <v>11.837823</v>
       </c>
       <c r="BF25" s="1">
-        <v>1044.170000</v>
+        <v>1044.17</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.446000</v>
+        <v>-197.446</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>42627.330818</v>
+        <v>42627.330818000002</v>
       </c>
       <c r="BJ25" s="1">
         <v>11.840925</v>
       </c>
       <c r="BK25" s="1">
-        <v>1110.810000</v>
+        <v>1110.81</v>
       </c>
       <c r="BL25" s="1">
-        <v>-315.114000</v>
+        <v>-315.11399999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>42638.426324</v>
@@ -6587,120 +7003,120 @@
         <v>11.844007</v>
       </c>
       <c r="BP25" s="1">
-        <v>1219.120000</v>
+        <v>1219.1199999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-501.094000</v>
+        <v>-501.09399999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>42649.098519</v>
+        <v>42649.098518999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>11.846972</v>
+        <v>11.846971999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1341.480000</v>
+        <v>1341.48</v>
       </c>
       <c r="BV25" s="1">
-        <v>-705.773000</v>
+        <v>-705.77300000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>42660.039000</v>
+        <v>42660.038999999997</v>
       </c>
       <c r="BY25" s="1">
         <v>11.850011</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1478.300000</v>
+        <v>1478.3</v>
       </c>
       <c r="CA25" s="1">
-        <v>-923.502000</v>
+        <v>-923.50199999999995</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>42673.194921</v>
+        <v>42673.194921000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>11.853665</v>
+        <v>11.853664999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1838.920000</v>
+        <v>1838.92</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1441.420000</v>
+        <v>-1441.42</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>42498.501468</v>
+        <v>42498.501468000002</v>
       </c>
       <c r="B26" s="1">
         <v>11.805139</v>
       </c>
       <c r="C26" s="1">
-        <v>907.474000</v>
+        <v>907.47400000000005</v>
       </c>
       <c r="D26" s="1">
-        <v>-187.804000</v>
+        <v>-187.804</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>42508.975986</v>
+        <v>42508.975985999998</v>
       </c>
       <c r="G26" s="1">
         <v>11.808049</v>
       </c>
       <c r="H26" s="1">
-        <v>923.423000</v>
+        <v>923.423</v>
       </c>
       <c r="I26" s="1">
-        <v>-159.521000</v>
+        <v>-159.52099999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>42519.489152</v>
+        <v>42519.489152000002</v>
       </c>
       <c r="L26" s="1">
         <v>11.810969</v>
       </c>
       <c r="M26" s="1">
-        <v>944.807000</v>
+        <v>944.80700000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-115.040000</v>
+        <v>-115.04</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>42530.054434</v>
+        <v>42530.054433999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>11.813904</v>
+        <v>11.813904000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>951.615000</v>
+        <v>951.61500000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-100.424000</v>
+        <v>-100.42400000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>42540.459013</v>
@@ -6709,195 +7125,196 @@
         <v>11.816794</v>
       </c>
       <c r="W26" s="1">
-        <v>958.438000</v>
+        <v>958.43799999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-86.805400</v>
+        <v>-86.805400000000006</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>42551.274806</v>
+        <v>42551.274806000001</v>
       </c>
       <c r="AA26" s="1">
         <v>11.819799</v>
       </c>
       <c r="AB26" s="1">
-        <v>966.243000</v>
+        <v>966.24300000000005</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.458900</v>
+        <v>-76.4589</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>42562.075657</v>
+        <v>42562.075657000001</v>
       </c>
       <c r="AF26" s="1">
         <v>11.822799</v>
       </c>
       <c r="AG26" s="1">
-        <v>971.312000</v>
+        <v>971.31200000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.688700</v>
+        <v>-74.688699999999997</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>42572.643914</v>
       </c>
       <c r="AK26" s="1">
-        <v>11.825734</v>
+        <v>11.825734000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>978.896000</v>
+        <v>978.89599999999996</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.725800</v>
+        <v>-79.725800000000007</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>42583.617931</v>
+        <v>42583.617931000001</v>
       </c>
       <c r="AP26" s="1">
         <v>11.828783</v>
       </c>
       <c r="AQ26" s="1">
-        <v>987.146000</v>
+        <v>987.14599999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.495000</v>
+        <v>-91.495000000000005</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>42595.133021</v>
+        <v>42595.133021000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>11.831981</v>
+        <v>11.831981000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>997.145000</v>
+        <v>997.14499999999998</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.260000</v>
+        <v>-109.26</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>42605.817838</v>
+        <v>42605.817838000003</v>
       </c>
       <c r="AZ26" s="1">
         <v>11.834949</v>
       </c>
       <c r="BA26" s="1">
-        <v>1005.450000</v>
+        <v>1005.45</v>
       </c>
       <c r="BB26" s="1">
-        <v>-125.052000</v>
+        <v>-125.05200000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>42616.580032</v>
+        <v>42616.580031999998</v>
       </c>
       <c r="BE26" s="1">
         <v>11.837939</v>
       </c>
       <c r="BF26" s="1">
-        <v>1044.170000</v>
+        <v>1044.17</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.434000</v>
+        <v>-197.434</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>42627.675538</v>
+        <v>42627.675538000003</v>
       </c>
       <c r="BJ26" s="1">
         <v>11.841021</v>
       </c>
       <c r="BK26" s="1">
-        <v>1110.810000</v>
+        <v>1110.81</v>
       </c>
       <c r="BL26" s="1">
-        <v>-315.107000</v>
+        <v>-315.10700000000003</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>42638.804772</v>
+        <v>42638.804772000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>11.844112</v>
+        <v>11.844112000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1219.130000</v>
+        <v>1219.1300000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-501.081000</v>
+        <v>-501.08100000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>42649.513396</v>
+        <v>42649.513396000002</v>
       </c>
       <c r="BT26" s="1">
         <v>11.847087</v>
       </c>
       <c r="BU26" s="1">
-        <v>1341.430000</v>
+        <v>1341.43</v>
       </c>
       <c r="BV26" s="1">
-        <v>-705.806000</v>
+        <v>-705.80600000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>42660.465565</v>
+        <v>42660.465564999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>11.850129</v>
+        <v>11.850129000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1478.200000</v>
+        <v>1478.2</v>
       </c>
       <c r="CA26" s="1">
-        <v>-923.706000</v>
+        <v>-923.70600000000002</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>42673.712959</v>
+        <v>42673.712958999997</v>
       </c>
       <c r="CD26" s="1">
         <v>11.853809</v>
       </c>
       <c r="CE26" s="1">
-        <v>1839.160000</v>
+        <v>1839.16</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1441.620000</v>
+        <v>-1441.62</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>